--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10101_顧客検索.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10101_顧客検索.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC18659-9413-41B8-892C-C665C53FFFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F133AF40-0A29-4E4A-9829-E7C233AC8A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1770" windowWidth="33090" windowHeight="18225" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -57,8 +57,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -85,8 +85,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -9186,72 +9186,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9358,6 +9292,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9489,8 +9489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="7905750" y="285750"/>
+          <a:ext cx="1390650" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -9901,9 +9901,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9941,9 +9941,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9976,26 +9976,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10028,26 +10011,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10228,9 +10194,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="6.625" style="1"/>
+    <col min="1" max="16384" width="6.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -10316,7 +10282,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75">
+    <row r="32" spans="6:11" ht="19">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -10324,12 +10290,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="18.75">
+    <row r="33" spans="6:10" ht="19">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="18.75">
+    <row r="34" spans="6:10" ht="19">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -10839,63 +10805,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="22"/>
+    <col min="1" max="16384" width="3.58203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="195" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="201" t="s">
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="210" t="s">
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="188" t="s">
         <v>611</v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="192" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="197" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="186" t="str">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="164" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="188"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10903,53 +10869,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="195" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="192" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="198" t="str">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="186" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="164" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="188"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10957,45 +10923,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="219"/>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="187"/>
-      <c r="AI3" s="188"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11032,85 +10998,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="189" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="189" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="189" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="191"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="189" t="s">
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="191"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="191"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="189" t="s">
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="169"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169"/>
+      <c r="AC7" s="169"/>
+      <c r="AD7" s="169"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="191"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="169"/>
+      <c r="AH7" s="169"/>
+      <c r="AI7" s="168"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184"/>
-      <c r="AE8" s="185"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="219"/>
+      <c r="N8" s="219"/>
+      <c r="O8" s="219"/>
+      <c r="P8" s="220"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="219"/>
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="219"/>
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="220"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -11118,934 +11084,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="174"/>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="174"/>
-      <c r="AB9" s="174"/>
-      <c r="AC9" s="174"/>
-      <c r="AD9" s="174"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="172"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="208"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="210"/>
+      <c r="U9" s="210"/>
+      <c r="V9" s="210"/>
+      <c r="W9" s="210"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="210"/>
+      <c r="AB9" s="210"/>
+      <c r="AC9" s="210"/>
+      <c r="AD9" s="210"/>
+      <c r="AE9" s="211"/>
+      <c r="AF9" s="206"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="207"/>
+      <c r="AI9" s="208"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="174"/>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="172"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="207"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="207"/>
+      <c r="P10" s="208"/>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="210"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="210"/>
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="210"/>
+      <c r="AE10" s="211"/>
+      <c r="AF10" s="206"/>
+      <c r="AG10" s="207"/>
+      <c r="AH10" s="207"/>
+      <c r="AI10" s="208"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="174"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="171"/>
-      <c r="AI11" s="172"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="209"/>
+      <c r="R11" s="210"/>
+      <c r="S11" s="210"/>
+      <c r="T11" s="210"/>
+      <c r="U11" s="210"/>
+      <c r="V11" s="210"/>
+      <c r="W11" s="210"/>
+      <c r="X11" s="210"/>
+      <c r="Y11" s="210"/>
+      <c r="Z11" s="210"/>
+      <c r="AA11" s="210"/>
+      <c r="AB11" s="210"/>
+      <c r="AC11" s="210"/>
+      <c r="AD11" s="210"/>
+      <c r="AE11" s="211"/>
+      <c r="AF11" s="206"/>
+      <c r="AG11" s="207"/>
+      <c r="AH11" s="207"/>
+      <c r="AI11" s="208"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="174"/>
-      <c r="U12" s="174"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="174"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="174"/>
-      <c r="AC12" s="174"/>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="171"/>
-      <c r="AI12" s="172"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="208"/>
+      <c r="Q12" s="209"/>
+      <c r="R12" s="210"/>
+      <c r="S12" s="210"/>
+      <c r="T12" s="210"/>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210"/>
+      <c r="W12" s="210"/>
+      <c r="X12" s="210"/>
+      <c r="Y12" s="210"/>
+      <c r="Z12" s="210"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="210"/>
+      <c r="AC12" s="210"/>
+      <c r="AD12" s="210"/>
+      <c r="AE12" s="211"/>
+      <c r="AF12" s="206"/>
+      <c r="AG12" s="207"/>
+      <c r="AH12" s="207"/>
+      <c r="AI12" s="208"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="174"/>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="174"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="171"/>
-      <c r="AI13" s="172"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="207"/>
+      <c r="N13" s="207"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="208"/>
+      <c r="Q13" s="209"/>
+      <c r="R13" s="210"/>
+      <c r="S13" s="210"/>
+      <c r="T13" s="210"/>
+      <c r="U13" s="210"/>
+      <c r="V13" s="210"/>
+      <c r="W13" s="210"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="210"/>
+      <c r="Z13" s="210"/>
+      <c r="AA13" s="210"/>
+      <c r="AB13" s="210"/>
+      <c r="AC13" s="210"/>
+      <c r="AD13" s="210"/>
+      <c r="AE13" s="211"/>
+      <c r="AF13" s="206"/>
+      <c r="AG13" s="207"/>
+      <c r="AH13" s="207"/>
+      <c r="AI13" s="208"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="174"/>
-      <c r="U14" s="174"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="174"/>
-      <c r="AA14" s="174"/>
-      <c r="AB14" s="174"/>
-      <c r="AC14" s="174"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="170"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="171"/>
-      <c r="AI14" s="172"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="207"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="208"/>
+      <c r="Q14" s="209"/>
+      <c r="R14" s="210"/>
+      <c r="S14" s="210"/>
+      <c r="T14" s="210"/>
+      <c r="U14" s="210"/>
+      <c r="V14" s="210"/>
+      <c r="W14" s="210"/>
+      <c r="X14" s="210"/>
+      <c r="Y14" s="210"/>
+      <c r="Z14" s="210"/>
+      <c r="AA14" s="210"/>
+      <c r="AB14" s="210"/>
+      <c r="AC14" s="210"/>
+      <c r="AD14" s="210"/>
+      <c r="AE14" s="211"/>
+      <c r="AF14" s="206"/>
+      <c r="AG14" s="207"/>
+      <c r="AH14" s="207"/>
+      <c r="AI14" s="208"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="174"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="174"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="170"/>
-      <c r="AG15" s="171"/>
-      <c r="AH15" s="171"/>
-      <c r="AI15" s="172"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="208"/>
+      <c r="Q15" s="209"/>
+      <c r="R15" s="210"/>
+      <c r="S15" s="210"/>
+      <c r="T15" s="210"/>
+      <c r="U15" s="210"/>
+      <c r="V15" s="210"/>
+      <c r="W15" s="210"/>
+      <c r="X15" s="210"/>
+      <c r="Y15" s="210"/>
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="210"/>
+      <c r="AD15" s="210"/>
+      <c r="AE15" s="211"/>
+      <c r="AF15" s="206"/>
+      <c r="AG15" s="207"/>
+      <c r="AH15" s="207"/>
+      <c r="AI15" s="208"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="174"/>
-      <c r="U16" s="174"/>
-      <c r="V16" s="174"/>
-      <c r="W16" s="174"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="174"/>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="174"/>
-      <c r="AB16" s="174"/>
-      <c r="AC16" s="174"/>
-      <c r="AD16" s="174"/>
-      <c r="AE16" s="175"/>
-      <c r="AF16" s="170"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="171"/>
-      <c r="AI16" s="172"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="207"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="208"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="210"/>
+      <c r="S16" s="210"/>
+      <c r="T16" s="210"/>
+      <c r="U16" s="210"/>
+      <c r="V16" s="210"/>
+      <c r="W16" s="210"/>
+      <c r="X16" s="210"/>
+      <c r="Y16" s="210"/>
+      <c r="Z16" s="210"/>
+      <c r="AA16" s="210"/>
+      <c r="AB16" s="210"/>
+      <c r="AC16" s="210"/>
+      <c r="AD16" s="210"/>
+      <c r="AE16" s="211"/>
+      <c r="AF16" s="206"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="207"/>
+      <c r="AI16" s="208"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="174"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="174"/>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="174"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="175"/>
-      <c r="AF17" s="170"/>
-      <c r="AG17" s="171"/>
-      <c r="AH17" s="171"/>
-      <c r="AI17" s="172"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="207"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="207"/>
+      <c r="O17" s="207"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="210"/>
+      <c r="S17" s="210"/>
+      <c r="T17" s="210"/>
+      <c r="U17" s="210"/>
+      <c r="V17" s="210"/>
+      <c r="W17" s="210"/>
+      <c r="X17" s="210"/>
+      <c r="Y17" s="210"/>
+      <c r="Z17" s="210"/>
+      <c r="AA17" s="210"/>
+      <c r="AB17" s="210"/>
+      <c r="AC17" s="210"/>
+      <c r="AD17" s="210"/>
+      <c r="AE17" s="211"/>
+      <c r="AF17" s="206"/>
+      <c r="AG17" s="207"/>
+      <c r="AH17" s="207"/>
+      <c r="AI17" s="208"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="175"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="171"/>
-      <c r="AI18" s="172"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="207"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="207"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="210"/>
+      <c r="S18" s="210"/>
+      <c r="T18" s="210"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="210"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="211"/>
+      <c r="AF18" s="206"/>
+      <c r="AG18" s="207"/>
+      <c r="AH18" s="207"/>
+      <c r="AI18" s="208"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="174"/>
-      <c r="U19" s="174"/>
-      <c r="V19" s="174"/>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="174"/>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
-      <c r="AD19" s="174"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="170"/>
-      <c r="AG19" s="171"/>
-      <c r="AH19" s="171"/>
-      <c r="AI19" s="172"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="207"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="209"/>
+      <c r="R19" s="210"/>
+      <c r="S19" s="210"/>
+      <c r="T19" s="210"/>
+      <c r="U19" s="210"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="210"/>
+      <c r="AA19" s="210"/>
+      <c r="AB19" s="210"/>
+      <c r="AC19" s="210"/>
+      <c r="AD19" s="210"/>
+      <c r="AE19" s="211"/>
+      <c r="AF19" s="206"/>
+      <c r="AG19" s="207"/>
+      <c r="AH19" s="207"/>
+      <c r="AI19" s="208"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
-      <c r="U20" s="174"/>
-      <c r="V20" s="174"/>
-      <c r="W20" s="174"/>
-      <c r="X20" s="174"/>
-      <c r="Y20" s="174"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="174"/>
-      <c r="AB20" s="174"/>
-      <c r="AC20" s="174"/>
-      <c r="AD20" s="174"/>
-      <c r="AE20" s="175"/>
-      <c r="AF20" s="170"/>
-      <c r="AG20" s="171"/>
-      <c r="AH20" s="171"/>
-      <c r="AI20" s="172"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="209"/>
+      <c r="R20" s="210"/>
+      <c r="S20" s="210"/>
+      <c r="T20" s="210"/>
+      <c r="U20" s="210"/>
+      <c r="V20" s="210"/>
+      <c r="W20" s="210"/>
+      <c r="X20" s="210"/>
+      <c r="Y20" s="210"/>
+      <c r="Z20" s="210"/>
+      <c r="AA20" s="210"/>
+      <c r="AB20" s="210"/>
+      <c r="AC20" s="210"/>
+      <c r="AD20" s="210"/>
+      <c r="AE20" s="211"/>
+      <c r="AF20" s="206"/>
+      <c r="AG20" s="207"/>
+      <c r="AH20" s="207"/>
+      <c r="AI20" s="208"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
-      <c r="Y21" s="174"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="174"/>
-      <c r="AC21" s="174"/>
-      <c r="AD21" s="174"/>
-      <c r="AE21" s="175"/>
-      <c r="AF21" s="170"/>
-      <c r="AG21" s="171"/>
-      <c r="AH21" s="171"/>
-      <c r="AI21" s="172"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="207"/>
+      <c r="L21" s="207"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="208"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="210"/>
+      <c r="S21" s="210"/>
+      <c r="T21" s="210"/>
+      <c r="U21" s="210"/>
+      <c r="V21" s="210"/>
+      <c r="W21" s="210"/>
+      <c r="X21" s="210"/>
+      <c r="Y21" s="210"/>
+      <c r="Z21" s="210"/>
+      <c r="AA21" s="210"/>
+      <c r="AB21" s="210"/>
+      <c r="AC21" s="210"/>
+      <c r="AD21" s="210"/>
+      <c r="AE21" s="211"/>
+      <c r="AF21" s="206"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="207"/>
+      <c r="AI21" s="208"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="174"/>
-      <c r="T22" s="174"/>
-      <c r="U22" s="174"/>
-      <c r="V22" s="174"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="174"/>
-      <c r="Y22" s="174"/>
-      <c r="Z22" s="174"/>
-      <c r="AA22" s="174"/>
-      <c r="AB22" s="174"/>
-      <c r="AC22" s="174"/>
-      <c r="AD22" s="174"/>
-      <c r="AE22" s="175"/>
-      <c r="AF22" s="170"/>
-      <c r="AG22" s="171"/>
-      <c r="AH22" s="171"/>
-      <c r="AI22" s="172"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="207"/>
+      <c r="L22" s="207"/>
+      <c r="M22" s="207"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="210"/>
+      <c r="S22" s="210"/>
+      <c r="T22" s="210"/>
+      <c r="U22" s="210"/>
+      <c r="V22" s="210"/>
+      <c r="W22" s="210"/>
+      <c r="X22" s="210"/>
+      <c r="Y22" s="210"/>
+      <c r="Z22" s="210"/>
+      <c r="AA22" s="210"/>
+      <c r="AB22" s="210"/>
+      <c r="AC22" s="210"/>
+      <c r="AD22" s="210"/>
+      <c r="AE22" s="211"/>
+      <c r="AF22" s="206"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="207"/>
+      <c r="AI22" s="208"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="174"/>
-      <c r="T23" s="174"/>
-      <c r="U23" s="174"/>
-      <c r="V23" s="174"/>
-      <c r="W23" s="174"/>
-      <c r="X23" s="174"/>
-      <c r="Y23" s="174"/>
-      <c r="Z23" s="174"/>
-      <c r="AA23" s="174"/>
-      <c r="AB23" s="174"/>
-      <c r="AC23" s="174"/>
-      <c r="AD23" s="174"/>
-      <c r="AE23" s="175"/>
-      <c r="AF23" s="170"/>
-      <c r="AG23" s="171"/>
-      <c r="AH23" s="171"/>
-      <c r="AI23" s="172"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="207"/>
+      <c r="L23" s="207"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="209"/>
+      <c r="R23" s="210"/>
+      <c r="S23" s="210"/>
+      <c r="T23" s="210"/>
+      <c r="U23" s="210"/>
+      <c r="V23" s="210"/>
+      <c r="W23" s="210"/>
+      <c r="X23" s="210"/>
+      <c r="Y23" s="210"/>
+      <c r="Z23" s="210"/>
+      <c r="AA23" s="210"/>
+      <c r="AB23" s="210"/>
+      <c r="AC23" s="210"/>
+      <c r="AD23" s="210"/>
+      <c r="AE23" s="211"/>
+      <c r="AF23" s="206"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="207"/>
+      <c r="AI23" s="208"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
-      <c r="AB24" s="174"/>
-      <c r="AC24" s="174"/>
-      <c r="AD24" s="174"/>
-      <c r="AE24" s="175"/>
-      <c r="AF24" s="170"/>
-      <c r="AG24" s="171"/>
-      <c r="AH24" s="171"/>
-      <c r="AI24" s="172"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="210"/>
+      <c r="S24" s="210"/>
+      <c r="T24" s="210"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
+      <c r="AA24" s="210"/>
+      <c r="AB24" s="210"/>
+      <c r="AC24" s="210"/>
+      <c r="AD24" s="210"/>
+      <c r="AE24" s="211"/>
+      <c r="AF24" s="206"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="207"/>
+      <c r="AI24" s="208"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="174"/>
-      <c r="AB25" s="174"/>
-      <c r="AC25" s="174"/>
-      <c r="AD25" s="174"/>
-      <c r="AE25" s="175"/>
-      <c r="AF25" s="170"/>
-      <c r="AG25" s="171"/>
-      <c r="AH25" s="171"/>
-      <c r="AI25" s="172"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="207"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="207"/>
+      <c r="N25" s="207"/>
+      <c r="O25" s="207"/>
+      <c r="P25" s="208"/>
+      <c r="Q25" s="209"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="210"/>
+      <c r="U25" s="210"/>
+      <c r="V25" s="210"/>
+      <c r="W25" s="210"/>
+      <c r="X25" s="210"/>
+      <c r="Y25" s="210"/>
+      <c r="Z25" s="210"/>
+      <c r="AA25" s="210"/>
+      <c r="AB25" s="210"/>
+      <c r="AC25" s="210"/>
+      <c r="AD25" s="210"/>
+      <c r="AE25" s="211"/>
+      <c r="AF25" s="206"/>
+      <c r="AG25" s="207"/>
+      <c r="AH25" s="207"/>
+      <c r="AI25" s="208"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="175"/>
-      <c r="AF26" s="170"/>
-      <c r="AG26" s="171"/>
-      <c r="AH26" s="171"/>
-      <c r="AI26" s="172"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="208"/>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="210"/>
+      <c r="S26" s="210"/>
+      <c r="T26" s="210"/>
+      <c r="U26" s="210"/>
+      <c r="V26" s="210"/>
+      <c r="W26" s="210"/>
+      <c r="X26" s="210"/>
+      <c r="Y26" s="210"/>
+      <c r="Z26" s="210"/>
+      <c r="AA26" s="210"/>
+      <c r="AB26" s="210"/>
+      <c r="AC26" s="210"/>
+      <c r="AD26" s="210"/>
+      <c r="AE26" s="211"/>
+      <c r="AF26" s="206"/>
+      <c r="AG26" s="207"/>
+      <c r="AH26" s="207"/>
+      <c r="AI26" s="208"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="174"/>
-      <c r="T27" s="174"/>
-      <c r="U27" s="174"/>
-      <c r="V27" s="174"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="174"/>
-      <c r="Y27" s="174"/>
-      <c r="Z27" s="174"/>
-      <c r="AA27" s="174"/>
-      <c r="AB27" s="174"/>
-      <c r="AC27" s="174"/>
-      <c r="AD27" s="174"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="170"/>
-      <c r="AG27" s="171"/>
-      <c r="AH27" s="171"/>
-      <c r="AI27" s="172"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="207"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="207"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="209"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="210"/>
+      <c r="AE27" s="211"/>
+      <c r="AF27" s="206"/>
+      <c r="AG27" s="207"/>
+      <c r="AH27" s="207"/>
+      <c r="AI27" s="208"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
-      <c r="AB28" s="174"/>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="174"/>
-      <c r="AE28" s="175"/>
-      <c r="AF28" s="170"/>
-      <c r="AG28" s="171"/>
-      <c r="AH28" s="171"/>
-      <c r="AI28" s="172"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
+      <c r="P28" s="208"/>
+      <c r="Q28" s="209"/>
+      <c r="R28" s="210"/>
+      <c r="S28" s="210"/>
+      <c r="T28" s="210"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
+      <c r="AC28" s="210"/>
+      <c r="AD28" s="210"/>
+      <c r="AE28" s="211"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="207"/>
+      <c r="AH28" s="207"/>
+      <c r="AI28" s="208"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="174"/>
-      <c r="U29" s="174"/>
-      <c r="V29" s="174"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="174"/>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="174"/>
-      <c r="AB29" s="174"/>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="174"/>
-      <c r="AE29" s="175"/>
-      <c r="AF29" s="170"/>
-      <c r="AG29" s="171"/>
-      <c r="AH29" s="171"/>
-      <c r="AI29" s="172"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="207"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="208"/>
+      <c r="Q29" s="209"/>
+      <c r="R29" s="210"/>
+      <c r="S29" s="210"/>
+      <c r="T29" s="210"/>
+      <c r="U29" s="210"/>
+      <c r="V29" s="210"/>
+      <c r="W29" s="210"/>
+      <c r="X29" s="210"/>
+      <c r="Y29" s="210"/>
+      <c r="Z29" s="210"/>
+      <c r="AA29" s="210"/>
+      <c r="AB29" s="210"/>
+      <c r="AC29" s="210"/>
+      <c r="AD29" s="210"/>
+      <c r="AE29" s="211"/>
+      <c r="AF29" s="206"/>
+      <c r="AG29" s="207"/>
+      <c r="AH29" s="207"/>
+      <c r="AI29" s="208"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="174"/>
-      <c r="AA30" s="174"/>
-      <c r="AB30" s="174"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="175"/>
-      <c r="AF30" s="170"/>
-      <c r="AG30" s="171"/>
-      <c r="AH30" s="171"/>
-      <c r="AI30" s="172"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="208"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="210"/>
+      <c r="S30" s="210"/>
+      <c r="T30" s="210"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="210"/>
+      <c r="AD30" s="210"/>
+      <c r="AE30" s="211"/>
+      <c r="AF30" s="206"/>
+      <c r="AG30" s="207"/>
+      <c r="AH30" s="207"/>
+      <c r="AI30" s="208"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="174"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="174"/>
-      <c r="Z31" s="174"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="174"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="175"/>
-      <c r="AF31" s="170"/>
-      <c r="AG31" s="171"/>
-      <c r="AH31" s="171"/>
-      <c r="AI31" s="172"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="207"/>
+      <c r="P31" s="208"/>
+      <c r="Q31" s="209"/>
+      <c r="R31" s="210"/>
+      <c r="S31" s="210"/>
+      <c r="T31" s="210"/>
+      <c r="U31" s="210"/>
+      <c r="V31" s="210"/>
+      <c r="W31" s="210"/>
+      <c r="X31" s="210"/>
+      <c r="Y31" s="210"/>
+      <c r="Z31" s="210"/>
+      <c r="AA31" s="210"/>
+      <c r="AB31" s="210"/>
+      <c r="AC31" s="210"/>
+      <c r="AD31" s="210"/>
+      <c r="AE31" s="211"/>
+      <c r="AF31" s="206"/>
+      <c r="AG31" s="207"/>
+      <c r="AH31" s="207"/>
+      <c r="AI31" s="208"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
-      <c r="Y32" s="174"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="174"/>
-      <c r="AC32" s="174"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="175"/>
-      <c r="AF32" s="170"/>
-      <c r="AG32" s="171"/>
-      <c r="AH32" s="171"/>
-      <c r="AI32" s="172"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="207"/>
+      <c r="O32" s="207"/>
+      <c r="P32" s="208"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="210"/>
+      <c r="S32" s="210"/>
+      <c r="T32" s="210"/>
+      <c r="U32" s="210"/>
+      <c r="V32" s="210"/>
+      <c r="W32" s="210"/>
+      <c r="X32" s="210"/>
+      <c r="Y32" s="210"/>
+      <c r="Z32" s="210"/>
+      <c r="AA32" s="210"/>
+      <c r="AB32" s="210"/>
+      <c r="AC32" s="210"/>
+      <c r="AD32" s="210"/>
+      <c r="AE32" s="211"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="207"/>
+      <c r="AH32" s="207"/>
+      <c r="AI32" s="208"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="174"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="175"/>
-      <c r="AF33" s="170"/>
-      <c r="AG33" s="171"/>
-      <c r="AH33" s="171"/>
-      <c r="AI33" s="172"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25">
+      <c r="B33" s="200"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="207"/>
+      <c r="P33" s="208"/>
+      <c r="Q33" s="209"/>
+      <c r="R33" s="210"/>
+      <c r="S33" s="210"/>
+      <c r="T33" s="210"/>
+      <c r="U33" s="210"/>
+      <c r="V33" s="210"/>
+      <c r="W33" s="210"/>
+      <c r="X33" s="210"/>
+      <c r="Y33" s="210"/>
+      <c r="Z33" s="210"/>
+      <c r="AA33" s="210"/>
+      <c r="AB33" s="210"/>
+      <c r="AC33" s="210"/>
+      <c r="AD33" s="210"/>
+      <c r="AE33" s="211"/>
+      <c r="AF33" s="206"/>
+      <c r="AG33" s="207"/>
+      <c r="AH33" s="207"/>
+      <c r="AI33" s="208"/>
+    </row>
+    <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12069,161 +12190,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12246,18 +12212,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="29" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.625" style="28" customWidth="1"/>
-    <col min="10" max="11" width="25.625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="28" customWidth="1"/>
-    <col min="13" max="17" width="8.625" style="28" customWidth="1"/>
+    <col min="1" max="2" width="8.58203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="40.58203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="40.58203125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.58203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="25.58203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="12.58203125" style="28" customWidth="1"/>
+    <col min="13" max="17" width="8.58203125" style="28" customWidth="1"/>
     <col min="18" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -12303,7 +12269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12" thickBot="1">
+    <row r="8" spans="1:17" ht="11.5" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
@@ -12322,7 +12288,7 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
     </row>
-    <row r="9" spans="1:17" ht="12" thickTop="1"/>
+    <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
     <row r="10" spans="1:17" s="32" customFormat="1">
       <c r="A10" s="33" t="s">
         <v>30</v>
@@ -12376,7 +12342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22.5">
+    <row r="11" spans="1:17" ht="22">
       <c r="A11" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -12418,7 +12384,7 @@
       <c r="P11" s="119"/>
       <c r="Q11" s="58"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5">
+    <row r="12" spans="1:17" ht="22">
       <c r="A12" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -12454,7 +12420,7 @@
       <c r="P12" s="119"/>
       <c r="Q12" s="58"/>
     </row>
-    <row r="13" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="13" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A13" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -12492,7 +12458,7 @@
       <c r="P13" s="120"/>
       <c r="Q13" s="119"/>
     </row>
-    <row r="14" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="14" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A14" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -12526,7 +12492,7 @@
       <c r="P14" s="120"/>
       <c r="Q14" s="119"/>
     </row>
-    <row r="15" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="15" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A15" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -12560,7 +12526,7 @@
       <c r="P15" s="120"/>
       <c r="Q15" s="119"/>
     </row>
-    <row r="16" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="16" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A16" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -12594,7 +12560,7 @@
       <c r="P16" s="119"/>
       <c r="Q16" s="58"/>
     </row>
-    <row r="17" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="17" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A17" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -12628,7 +12594,7 @@
       <c r="P17" s="119"/>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="1:17" ht="22.5">
+    <row r="18" spans="1:17" ht="22">
       <c r="A18" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -12666,7 +12632,7 @@
       <c r="P18" s="119"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="1:17" ht="22.5">
+    <row r="19" spans="1:17" ht="22">
       <c r="A19" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -12700,7 +12666,7 @@
       <c r="P19" s="119"/>
       <c r="Q19" s="58"/>
     </row>
-    <row r="20" spans="1:17" ht="22.5">
+    <row r="20" spans="1:17" ht="22">
       <c r="A20" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -12734,7 +12700,7 @@
       <c r="P20" s="119"/>
       <c r="Q20" s="58"/>
     </row>
-    <row r="21" spans="1:17" ht="22.5">
+    <row r="21" spans="1:17" ht="22">
       <c r="A21" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -12770,7 +12736,7 @@
       <c r="P21" s="119"/>
       <c r="Q21" s="58"/>
     </row>
-    <row r="22" spans="1:17" ht="22.5">
+    <row r="22" spans="1:17" ht="22">
       <c r="A22" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -12804,7 +12770,7 @@
       <c r="P22" s="119"/>
       <c r="Q22" s="58"/>
     </row>
-    <row r="23" spans="1:17" ht="22.5">
+    <row r="23" spans="1:17" ht="22">
       <c r="A23" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -12838,7 +12804,7 @@
       <c r="P23" s="119"/>
       <c r="Q23" s="58"/>
     </row>
-    <row r="24" spans="1:17" ht="22.5">
+    <row r="24" spans="1:17" ht="22">
       <c r="A24" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -12872,7 +12838,7 @@
       <c r="P24" s="119"/>
       <c r="Q24" s="58"/>
     </row>
-    <row r="25" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="25" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A25" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -12944,7 +12910,7 @@
       <c r="P26" s="120"/>
       <c r="Q26" s="119"/>
     </row>
-    <row r="27" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="27" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A27" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -12982,7 +12948,7 @@
       <c r="P27" s="120"/>
       <c r="Q27" s="119"/>
     </row>
-    <row r="28" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="28" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A28" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -13016,7 +12982,7 @@
       <c r="P28" s="120"/>
       <c r="Q28" s="119"/>
     </row>
-    <row r="29" spans="1:17" ht="22.5">
+    <row r="29" spans="1:17" ht="22">
       <c r="A29" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -13052,7 +13018,7 @@
       <c r="P29" s="58"/>
       <c r="Q29" s="58"/>
     </row>
-    <row r="30" spans="1:17" ht="22.5">
+    <row r="30" spans="1:17" ht="22">
       <c r="A30" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -13086,7 +13052,7 @@
       <c r="P30" s="58"/>
       <c r="Q30" s="58"/>
     </row>
-    <row r="31" spans="1:17" ht="22.5">
+    <row r="31" spans="1:17" ht="22">
       <c r="A31" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -13120,7 +13086,7 @@
       <c r="P31" s="58"/>
       <c r="Q31" s="58"/>
     </row>
-    <row r="32" spans="1:17" ht="22.5">
+    <row r="32" spans="1:17" ht="22">
       <c r="A32" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -13154,7 +13120,7 @@
       <c r="P32" s="58"/>
       <c r="Q32" s="58"/>
     </row>
-    <row r="33" spans="1:17" ht="22.5">
+    <row r="33" spans="1:17" ht="22">
       <c r="A33" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -13190,7 +13156,7 @@
       <c r="P33" s="58"/>
       <c r="Q33" s="58"/>
     </row>
-    <row r="34" spans="1:17" ht="22.5">
+    <row r="34" spans="1:17" ht="22">
       <c r="A34" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -13224,7 +13190,7 @@
       <c r="P34" s="58"/>
       <c r="Q34" s="58"/>
     </row>
-    <row r="35" spans="1:17" ht="45">
+    <row r="35" spans="1:17" ht="44">
       <c r="A35" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -13260,7 +13226,7 @@
       <c r="P35" s="58"/>
       <c r="Q35" s="58"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75">
+    <row r="36" spans="1:17" ht="33">
       <c r="A36" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -13300,7 +13266,7 @@
       <c r="P36" s="58"/>
       <c r="Q36" s="58"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75">
+    <row r="37" spans="1:17" ht="33">
       <c r="A37" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -13334,7 +13300,7 @@
       <c r="P37" s="58"/>
       <c r="Q37" s="58"/>
     </row>
-    <row r="38" spans="1:17" ht="22.5">
+    <row r="38" spans="1:17" ht="22">
       <c r="A38" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -13368,7 +13334,7 @@
       <c r="P38" s="58"/>
       <c r="Q38" s="58"/>
     </row>
-    <row r="39" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="39" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A39" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -13402,7 +13368,7 @@
       <c r="P39" s="119"/>
       <c r="Q39" s="58"/>
     </row>
-    <row r="40" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="40" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -13442,7 +13408,7 @@
       <c r="P40" s="119"/>
       <c r="Q40" s="58"/>
     </row>
-    <row r="41" spans="1:17" s="32" customFormat="1" ht="56.25">
+    <row r="41" spans="1:17" s="32" customFormat="1" ht="55">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -13526,7 +13492,7 @@
       <c r="P42" s="119"/>
       <c r="Q42" s="58"/>
     </row>
-    <row r="43" spans="1:17" s="32" customFormat="1" ht="78.75">
+    <row r="43" spans="1:17" s="32" customFormat="1" ht="77">
       <c r="A43" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -13574,7 +13540,7 @@
       <c r="P43" s="156"/>
       <c r="Q43" s="108"/>
     </row>
-    <row r="44" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="44" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A44" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -13616,7 +13582,7 @@
       <c r="P44" s="119"/>
       <c r="Q44" s="58"/>
     </row>
-    <row r="45" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="45" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A45" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -13650,7 +13616,7 @@
       <c r="P45" s="119"/>
       <c r="Q45" s="58"/>
     </row>
-    <row r="46" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="46" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A46" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -13684,7 +13650,7 @@
       <c r="P46" s="119"/>
       <c r="Q46" s="58"/>
     </row>
-    <row r="47" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="47" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A47" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -13720,7 +13686,7 @@
       <c r="P47" s="119"/>
       <c r="Q47" s="58"/>
     </row>
-    <row r="48" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="48" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A48" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -13754,7 +13720,7 @@
       <c r="P48" s="119"/>
       <c r="Q48" s="58"/>
     </row>
-    <row r="49" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="49" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A49" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -13788,7 +13754,7 @@
       <c r="P49" s="119"/>
       <c r="Q49" s="58"/>
     </row>
-    <row r="50" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="50" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A50" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -13824,7 +13790,7 @@
       <c r="P50" s="119"/>
       <c r="Q50" s="58"/>
     </row>
-    <row r="51" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="51" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A51" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -13858,7 +13824,7 @@
       <c r="P51" s="119"/>
       <c r="Q51" s="58"/>
     </row>
-    <row r="52" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="52" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A52" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -13894,7 +13860,7 @@
       <c r="P52" s="119"/>
       <c r="Q52" s="58"/>
     </row>
-    <row r="53" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="53" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A53" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -13928,7 +13894,7 @@
       <c r="P53" s="119"/>
       <c r="Q53" s="58"/>
     </row>
-    <row r="54" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="54" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A54" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -13962,7 +13928,7 @@
       <c r="P54" s="119"/>
       <c r="Q54" s="58"/>
     </row>
-    <row r="55" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="55" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A55" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -13996,7 +13962,7 @@
       <c r="P55" s="119"/>
       <c r="Q55" s="58"/>
     </row>
-    <row r="56" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="56" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A56" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -14030,7 +13996,7 @@
       <c r="P56" s="119"/>
       <c r="Q56" s="58"/>
     </row>
-    <row r="57" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="57" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A57" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -14064,7 +14030,7 @@
       <c r="P57" s="119"/>
       <c r="Q57" s="58"/>
     </row>
-    <row r="58" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="58" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A58" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -14100,7 +14066,7 @@
       <c r="P58" s="119"/>
       <c r="Q58" s="58"/>
     </row>
-    <row r="59" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="59" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A59" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -14136,7 +14102,7 @@
       <c r="P59" s="119"/>
       <c r="Q59" s="58"/>
     </row>
-    <row r="60" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="60" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A60" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -14172,7 +14138,7 @@
       <c r="P60" s="119"/>
       <c r="Q60" s="58"/>
     </row>
-    <row r="61" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="61" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A61" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -14210,7 +14176,7 @@
       <c r="P61" s="119"/>
       <c r="Q61" s="58"/>
     </row>
-    <row r="62" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="62" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A62" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -14244,7 +14210,7 @@
       <c r="P62" s="119"/>
       <c r="Q62" s="58"/>
     </row>
-    <row r="63" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="63" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A63" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -14278,7 +14244,7 @@
       <c r="P63" s="119"/>
       <c r="Q63" s="58"/>
     </row>
-    <row r="64" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="64" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A64" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -14312,7 +14278,7 @@
       <c r="P64" s="119"/>
       <c r="Q64" s="58"/>
     </row>
-    <row r="65" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="65" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A65" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -14346,7 +14312,7 @@
       <c r="P65" s="119"/>
       <c r="Q65" s="58"/>
     </row>
-    <row r="66" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="66" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A66" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -14382,7 +14348,7 @@
       <c r="P66" s="119"/>
       <c r="Q66" s="58"/>
     </row>
-    <row r="67" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="67" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A67" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -14416,7 +14382,7 @@
       <c r="P67" s="119"/>
       <c r="Q67" s="58"/>
     </row>
-    <row r="68" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="68" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A68" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -14450,7 +14416,7 @@
       <c r="P68" s="119"/>
       <c r="Q68" s="58"/>
     </row>
-    <row r="69" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="69" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A69" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -14484,7 +14450,7 @@
       <c r="P69" s="119"/>
       <c r="Q69" s="58"/>
     </row>
-    <row r="70" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="70" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A70" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -14518,7 +14484,7 @@
       <c r="P70" s="119"/>
       <c r="Q70" s="58"/>
     </row>
-    <row r="71" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="71" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A71" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -14552,7 +14518,7 @@
       <c r="P71" s="119"/>
       <c r="Q71" s="58"/>
     </row>
-    <row r="72" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="72" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A72" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -14586,7 +14552,7 @@
       <c r="P72" s="119"/>
       <c r="Q72" s="58"/>
     </row>
-    <row r="73" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="73" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A73" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -14620,7 +14586,7 @@
       <c r="P73" s="119"/>
       <c r="Q73" s="58"/>
     </row>
-    <row r="74" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="74" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A74" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -14656,7 +14622,7 @@
       <c r="P74" s="119"/>
       <c r="Q74" s="58"/>
     </row>
-    <row r="75" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="75" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A75" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -14692,7 +14658,7 @@
       <c r="P75" s="119"/>
       <c r="Q75" s="58"/>
     </row>
-    <row r="76" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="76" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A76" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -14726,7 +14692,7 @@
       <c r="P76" s="119"/>
       <c r="Q76" s="58"/>
     </row>
-    <row r="77" spans="1:17" ht="22.5">
+    <row r="77" spans="1:17" ht="22">
       <c r="A77" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -14760,7 +14726,7 @@
       <c r="P77" s="58"/>
       <c r="Q77" s="58"/>
     </row>
-    <row r="78" spans="1:17" ht="22.5">
+    <row r="78" spans="1:17" ht="22">
       <c r="A78" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -14794,7 +14760,7 @@
       <c r="P78" s="58"/>
       <c r="Q78" s="58"/>
     </row>
-    <row r="79" spans="1:17" ht="22.5">
+    <row r="79" spans="1:17" ht="22">
       <c r="A79" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -14828,7 +14794,7 @@
       <c r="P79" s="58"/>
       <c r="Q79" s="58"/>
     </row>
-    <row r="80" spans="1:17" ht="22.5">
+    <row r="80" spans="1:17" ht="22">
       <c r="A80" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -14868,7 +14834,7 @@
       <c r="P80" s="58"/>
       <c r="Q80" s="58"/>
     </row>
-    <row r="81" spans="1:17" ht="33.75">
+    <row r="81" spans="1:17" ht="33">
       <c r="A81" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -14902,7 +14868,7 @@
       <c r="P81" s="58"/>
       <c r="Q81" s="58"/>
     </row>
-    <row r="82" spans="1:17" ht="22.5">
+    <row r="82" spans="1:17" ht="22">
       <c r="A82" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -14938,7 +14904,7 @@
       <c r="P82" s="58"/>
       <c r="Q82" s="58"/>
     </row>
-    <row r="83" spans="1:17" ht="33.75">
+    <row r="83" spans="1:17" ht="33">
       <c r="A83" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -14974,7 +14940,7 @@
       <c r="P83" s="58"/>
       <c r="Q83" s="58"/>
     </row>
-    <row r="84" spans="1:17" ht="33.75">
+    <row r="84" spans="1:17" ht="33">
       <c r="A84" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -15008,7 +14974,7 @@
       <c r="P84" s="58"/>
       <c r="Q84" s="58"/>
     </row>
-    <row r="85" spans="1:17" ht="22.5">
+    <row r="85" spans="1:17" ht="22">
       <c r="A85" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -15044,7 +15010,7 @@
       <c r="P85" s="58"/>
       <c r="Q85" s="58"/>
     </row>
-    <row r="86" spans="1:17" ht="22.5">
+    <row r="86" spans="1:17" ht="22">
       <c r="A86" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -15080,7 +15046,7 @@
       <c r="P86" s="58"/>
       <c r="Q86" s="58"/>
     </row>
-    <row r="87" spans="1:17" ht="22.5">
+    <row r="87" spans="1:17" ht="22">
       <c r="A87" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -15120,7 +15086,7 @@
       <c r="P87" s="58"/>
       <c r="Q87" s="58"/>
     </row>
-    <row r="88" spans="1:17" ht="22.5">
+    <row r="88" spans="1:17" ht="22">
       <c r="A88" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -15156,7 +15122,7 @@
       <c r="P88" s="58"/>
       <c r="Q88" s="58"/>
     </row>
-    <row r="89" spans="1:17" ht="33.75">
+    <row r="89" spans="1:17" ht="33">
       <c r="A89" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -15192,7 +15158,7 @@
       <c r="P89" s="58"/>
       <c r="Q89" s="58"/>
     </row>
-    <row r="90" spans="1:17" ht="22.5">
+    <row r="90" spans="1:17" ht="22">
       <c r="A90" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -15232,7 +15198,7 @@
       <c r="P90" s="58"/>
       <c r="Q90" s="58"/>
     </row>
-    <row r="91" spans="1:17" ht="33.75">
+    <row r="91" spans="1:17" ht="33">
       <c r="A91" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -15266,7 +15232,7 @@
       <c r="P91" s="58"/>
       <c r="Q91" s="58"/>
     </row>
-    <row r="92" spans="1:17" ht="22.5">
+    <row r="92" spans="1:17" ht="22">
       <c r="A92" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -15302,7 +15268,7 @@
       <c r="P92" s="58"/>
       <c r="Q92" s="58"/>
     </row>
-    <row r="93" spans="1:17" ht="33.75">
+    <row r="93" spans="1:17" ht="33">
       <c r="A93" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -15338,7 +15304,7 @@
       <c r="P93" s="58"/>
       <c r="Q93" s="58"/>
     </row>
-    <row r="94" spans="1:17" ht="33.75">
+    <row r="94" spans="1:17" ht="33">
       <c r="A94" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -15372,7 +15338,7 @@
       <c r="P94" s="58"/>
       <c r="Q94" s="58"/>
     </row>
-    <row r="95" spans="1:17" ht="33.75">
+    <row r="95" spans="1:17" ht="33">
       <c r="A95" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -15408,7 +15374,7 @@
       <c r="P95" s="58"/>
       <c r="Q95" s="58"/>
     </row>
-    <row r="96" spans="1:17" ht="22.5">
+    <row r="96" spans="1:17" ht="22">
       <c r="A96" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -15448,7 +15414,7 @@
       <c r="P96" s="58"/>
       <c r="Q96" s="58"/>
     </row>
-    <row r="97" spans="1:17" ht="33.75">
+    <row r="97" spans="1:17" ht="33">
       <c r="A97" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -15482,7 +15448,7 @@
       <c r="P97" s="58"/>
       <c r="Q97" s="58"/>
     </row>
-    <row r="98" spans="1:17" ht="22.5">
+    <row r="98" spans="1:17" ht="22">
       <c r="A98" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -15516,7 +15482,7 @@
       <c r="P98" s="58"/>
       <c r="Q98" s="58"/>
     </row>
-    <row r="99" spans="1:17" ht="33.75">
+    <row r="99" spans="1:17" ht="33">
       <c r="A99" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -15550,7 +15516,7 @@
       <c r="P99" s="58"/>
       <c r="Q99" s="58"/>
     </row>
-    <row r="100" spans="1:17" ht="33.75">
+    <row r="100" spans="1:17" ht="33">
       <c r="A100" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -15584,7 +15550,7 @@
       <c r="P100" s="58"/>
       <c r="Q100" s="58"/>
     </row>
-    <row r="101" spans="1:17" ht="22.5">
+    <row r="101" spans="1:17" ht="22">
       <c r="A101" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -15620,7 +15586,7 @@
       <c r="P101" s="58"/>
       <c r="Q101" s="58"/>
     </row>
-    <row r="102" spans="1:17" ht="33.75">
+    <row r="102" spans="1:17" ht="33">
       <c r="A102" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -15654,7 +15620,7 @@
       <c r="P102" s="58"/>
       <c r="Q102" s="58"/>
     </row>
-    <row r="103" spans="1:17" ht="22.5">
+    <row r="103" spans="1:17" ht="22">
       <c r="A103" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -15688,7 +15654,7 @@
       <c r="P103" s="58"/>
       <c r="Q103" s="58"/>
     </row>
-    <row r="104" spans="1:17" ht="33.75">
+    <row r="104" spans="1:17" ht="33">
       <c r="A104" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -15722,7 +15688,7 @@
       <c r="P104" s="58"/>
       <c r="Q104" s="58"/>
     </row>
-    <row r="105" spans="1:17" ht="33.75">
+    <row r="105" spans="1:17" ht="33">
       <c r="A105" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -15756,7 +15722,7 @@
       <c r="P105" s="58"/>
       <c r="Q105" s="58"/>
     </row>
-    <row r="106" spans="1:17" ht="33.75">
+    <row r="106" spans="1:17" ht="33">
       <c r="A106" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -15792,7 +15758,7 @@
       <c r="P106" s="58"/>
       <c r="Q106" s="58"/>
     </row>
-    <row r="107" spans="1:17" ht="33.75">
+    <row r="107" spans="1:17" ht="33">
       <c r="A107" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -15834,7 +15800,7 @@
       <c r="P107" s="58"/>
       <c r="Q107" s="58"/>
     </row>
-    <row r="108" spans="1:17" ht="22.5">
+    <row r="108" spans="1:17" ht="22">
       <c r="A108" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -15874,7 +15840,7 @@
       <c r="P108" s="58"/>
       <c r="Q108" s="58"/>
     </row>
-    <row r="109" spans="1:17" ht="22.5">
+    <row r="109" spans="1:17" ht="22">
       <c r="A109" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -15908,7 +15874,7 @@
       <c r="P109" s="58"/>
       <c r="Q109" s="58"/>
     </row>
-    <row r="110" spans="1:17" ht="22.5">
+    <row r="110" spans="1:17" ht="22">
       <c r="A110" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -15948,7 +15914,7 @@
       <c r="P110" s="58"/>
       <c r="Q110" s="58"/>
     </row>
-    <row r="111" spans="1:17" ht="22.5">
+    <row r="111" spans="1:17" ht="22">
       <c r="A111" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -15988,7 +15954,7 @@
       <c r="P111" s="58"/>
       <c r="Q111" s="58"/>
     </row>
-    <row r="112" spans="1:17" ht="22.5">
+    <row r="112" spans="1:17" ht="22">
       <c r="A112" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -16022,7 +15988,7 @@
       <c r="P112" s="58"/>
       <c r="Q112" s="58"/>
     </row>
-    <row r="113" spans="1:17" ht="22.5">
+    <row r="113" spans="1:17" ht="22">
       <c r="A113" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -16064,7 +16030,7 @@
       <c r="P113" s="58"/>
       <c r="Q113" s="58"/>
     </row>
-    <row r="114" spans="1:17" ht="22.5">
+    <row r="114" spans="1:17" ht="22">
       <c r="A114" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -16100,7 +16066,7 @@
       <c r="P114" s="58"/>
       <c r="Q114" s="58"/>
     </row>
-    <row r="115" spans="1:17" ht="22.5">
+    <row r="115" spans="1:17" ht="22">
       <c r="A115" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -16134,7 +16100,7 @@
       <c r="P115" s="58"/>
       <c r="Q115" s="58"/>
     </row>
-    <row r="116" spans="1:17" ht="22.5">
+    <row r="116" spans="1:17" ht="22">
       <c r="A116" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -16168,7 +16134,7 @@
       <c r="P116" s="58"/>
       <c r="Q116" s="58"/>
     </row>
-    <row r="117" spans="1:17" ht="22.5">
+    <row r="117" spans="1:17" ht="22">
       <c r="A117" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -16204,7 +16170,7 @@
       <c r="P117" s="58"/>
       <c r="Q117" s="58"/>
     </row>
-    <row r="118" spans="1:17" ht="22.5">
+    <row r="118" spans="1:17" ht="22">
       <c r="A118" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -16238,7 +16204,7 @@
       <c r="P118" s="58"/>
       <c r="Q118" s="58"/>
     </row>
-    <row r="119" spans="1:17" ht="22.5">
+    <row r="119" spans="1:17" ht="22">
       <c r="A119" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -16272,7 +16238,7 @@
       <c r="P119" s="58"/>
       <c r="Q119" s="58"/>
     </row>
-    <row r="120" spans="1:17" ht="22.5">
+    <row r="120" spans="1:17" ht="22">
       <c r="A120" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -16306,7 +16272,7 @@
       <c r="P120" s="58"/>
       <c r="Q120" s="58"/>
     </row>
-    <row r="121" spans="1:17" ht="33.75">
+    <row r="121" spans="1:17" ht="33">
       <c r="A121" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -16340,7 +16306,7 @@
       <c r="P121" s="58"/>
       <c r="Q121" s="58"/>
     </row>
-    <row r="122" spans="1:17" ht="33.75">
+    <row r="122" spans="1:17" ht="33">
       <c r="A122" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -16376,7 +16342,7 @@
       <c r="P122" s="58"/>
       <c r="Q122" s="58"/>
     </row>
-    <row r="123" spans="1:17" ht="33.75">
+    <row r="123" spans="1:17" ht="33">
       <c r="A123" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -16410,7 +16376,7 @@
       <c r="P123" s="58"/>
       <c r="Q123" s="58"/>
     </row>
-    <row r="124" spans="1:17" ht="45">
+    <row r="124" spans="1:17" ht="44">
       <c r="A124" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -16444,7 +16410,7 @@
       <c r="P124" s="58"/>
       <c r="Q124" s="58"/>
     </row>
-    <row r="125" spans="1:17" ht="45">
+    <row r="125" spans="1:17" ht="44">
       <c r="A125" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -16478,7 +16444,7 @@
       <c r="P125" s="58"/>
       <c r="Q125" s="58"/>
     </row>
-    <row r="126" spans="1:17" ht="33.75">
+    <row r="126" spans="1:17" ht="33">
       <c r="A126" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -16512,7 +16478,7 @@
       <c r="P126" s="58"/>
       <c r="Q126" s="58"/>
     </row>
-    <row r="127" spans="1:17" ht="33.75">
+    <row r="127" spans="1:17" ht="33">
       <c r="A127" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -16548,7 +16514,7 @@
       <c r="P127" s="58"/>
       <c r="Q127" s="58"/>
     </row>
-    <row r="128" spans="1:17" ht="33.75">
+    <row r="128" spans="1:17" ht="33">
       <c r="A128" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -16586,7 +16552,7 @@
       <c r="P128" s="58"/>
       <c r="Q128" s="58"/>
     </row>
-    <row r="129" spans="1:17" ht="33.75">
+    <row r="129" spans="1:17" ht="33">
       <c r="A129" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -16626,7 +16592,7 @@
       <c r="P129" s="58"/>
       <c r="Q129" s="58"/>
     </row>
-    <row r="130" spans="1:17" ht="22.5">
+    <row r="130" spans="1:17" ht="22">
       <c r="A130" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -16662,7 +16628,7 @@
       <c r="P130" s="58"/>
       <c r="Q130" s="58"/>
     </row>
-    <row r="131" spans="1:17" ht="22.5">
+    <row r="131" spans="1:17" ht="22">
       <c r="A131" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -16696,7 +16662,7 @@
       <c r="P131" s="58"/>
       <c r="Q131" s="58"/>
     </row>
-    <row r="132" spans="1:17" ht="45">
+    <row r="132" spans="1:17" ht="44">
       <c r="A132" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -16730,7 +16696,7 @@
       <c r="P132" s="58"/>
       <c r="Q132" s="58"/>
     </row>
-    <row r="133" spans="1:17" ht="22.5">
+    <row r="133" spans="1:17" ht="22">
       <c r="A133" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -16772,7 +16738,7 @@
       <c r="P133" s="58"/>
       <c r="Q133" s="58"/>
     </row>
-    <row r="134" spans="1:17" ht="22.5">
+    <row r="134" spans="1:17" ht="22">
       <c r="A134" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -16808,7 +16774,7 @@
       <c r="P134" s="58"/>
       <c r="Q134" s="58"/>
     </row>
-    <row r="135" spans="1:17" ht="22.5">
+    <row r="135" spans="1:17" ht="22">
       <c r="A135" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -16842,7 +16808,7 @@
       <c r="P135" s="58"/>
       <c r="Q135" s="58"/>
     </row>
-    <row r="136" spans="1:17" ht="22.5">
+    <row r="136" spans="1:17" ht="22">
       <c r="A136" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -16876,7 +16842,7 @@
       <c r="P136" s="58"/>
       <c r="Q136" s="58"/>
     </row>
-    <row r="137" spans="1:17" ht="22.5">
+    <row r="137" spans="1:17" ht="22">
       <c r="A137" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -16912,7 +16878,7 @@
       <c r="P137" s="58"/>
       <c r="Q137" s="58"/>
     </row>
-    <row r="138" spans="1:17" ht="33.75">
+    <row r="138" spans="1:17" ht="33">
       <c r="A138" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -16946,7 +16912,7 @@
       <c r="P138" s="58"/>
       <c r="Q138" s="58"/>
     </row>
-    <row r="139" spans="1:17" ht="33.75">
+    <row r="139" spans="1:17" ht="33">
       <c r="A139" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -16984,7 +16950,7 @@
       <c r="P139" s="58"/>
       <c r="Q139" s="58"/>
     </row>
-    <row r="140" spans="1:17" ht="33.75">
+    <row r="140" spans="1:17" ht="33">
       <c r="A140" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -17024,7 +16990,7 @@
       <c r="P140" s="58"/>
       <c r="Q140" s="58"/>
     </row>
-    <row r="141" spans="1:17" ht="33.75">
+    <row r="141" spans="1:17" ht="33">
       <c r="A141" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -17060,7 +17026,7 @@
       <c r="P141" s="58"/>
       <c r="Q141" s="58"/>
     </row>
-    <row r="142" spans="1:17" ht="33.75">
+    <row r="142" spans="1:17" ht="33">
       <c r="A142" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -17096,7 +17062,7 @@
       <c r="P142" s="58"/>
       <c r="Q142" s="58"/>
     </row>
-    <row r="143" spans="1:17" ht="33.75">
+    <row r="143" spans="1:17" ht="33">
       <c r="A143" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -17132,7 +17098,7 @@
       <c r="P143" s="58"/>
       <c r="Q143" s="58"/>
     </row>
-    <row r="144" spans="1:17" ht="33.75">
+    <row r="144" spans="1:17" ht="33">
       <c r="A144" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -17168,7 +17134,7 @@
       <c r="P144" s="58"/>
       <c r="Q144" s="58"/>
     </row>
-    <row r="145" spans="1:17" ht="22.5">
+    <row r="145" spans="1:17" ht="22">
       <c r="A145" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -17204,7 +17170,7 @@
       <c r="P145" s="58"/>
       <c r="Q145" s="58"/>
     </row>
-    <row r="146" spans="1:17" ht="22.5">
+    <row r="146" spans="1:17" ht="22">
       <c r="A146" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -17238,7 +17204,7 @@
       <c r="P146" s="58"/>
       <c r="Q146" s="58"/>
     </row>
-    <row r="147" spans="1:17" ht="22.5">
+    <row r="147" spans="1:17" ht="22">
       <c r="A147" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -17272,7 +17238,7 @@
       <c r="P147" s="58"/>
       <c r="Q147" s="58"/>
     </row>
-    <row r="148" spans="1:17" ht="22.5">
+    <row r="148" spans="1:17" ht="22">
       <c r="A148" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -17306,7 +17272,7 @@
       <c r="P148" s="58"/>
       <c r="Q148" s="58"/>
     </row>
-    <row r="149" spans="1:17" ht="22.5">
+    <row r="149" spans="1:17" ht="22">
       <c r="A149" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -17340,7 +17306,7 @@
       <c r="P149" s="58"/>
       <c r="Q149" s="58"/>
     </row>
-    <row r="150" spans="1:17" ht="22.5">
+    <row r="150" spans="1:17" ht="22">
       <c r="A150" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -17374,7 +17340,7 @@
       <c r="P150" s="58"/>
       <c r="Q150" s="58"/>
     </row>
-    <row r="151" spans="1:17" ht="22.5">
+    <row r="151" spans="1:17" ht="22">
       <c r="A151" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -17412,7 +17378,7 @@
       <c r="P151" s="58"/>
       <c r="Q151" s="58"/>
     </row>
-    <row r="152" spans="1:17" ht="22.5">
+    <row r="152" spans="1:17" ht="22">
       <c r="A152" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -17446,7 +17412,7 @@
       <c r="P152" s="58"/>
       <c r="Q152" s="58"/>
     </row>
-    <row r="153" spans="1:17" ht="33.75">
+    <row r="153" spans="1:17" ht="33">
       <c r="A153" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -17482,7 +17448,7 @@
       <c r="P153" s="58"/>
       <c r="Q153" s="58"/>
     </row>
-    <row r="154" spans="1:17" ht="33.75">
+    <row r="154" spans="1:17" ht="33">
       <c r="A154" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -17516,7 +17482,7 @@
       <c r="P154" s="58"/>
       <c r="Q154" s="58"/>
     </row>
-    <row r="155" spans="1:17" ht="33.75">
+    <row r="155" spans="1:17" ht="33">
       <c r="A155" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -17550,7 +17516,7 @@
       <c r="P155" s="58"/>
       <c r="Q155" s="58"/>
     </row>
-    <row r="156" spans="1:17" ht="33.75">
+    <row r="156" spans="1:17" ht="33">
       <c r="A156" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -17584,7 +17550,7 @@
       <c r="P156" s="58"/>
       <c r="Q156" s="58"/>
     </row>
-    <row r="157" spans="1:17" ht="33.75">
+    <row r="157" spans="1:17" ht="33">
       <c r="A157" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -17618,7 +17584,7 @@
       <c r="P157" s="58"/>
       <c r="Q157" s="58"/>
     </row>
-    <row r="158" spans="1:17" ht="22.5">
+    <row r="158" spans="1:17" ht="22">
       <c r="A158" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -17652,7 +17618,7 @@
       <c r="P158" s="58"/>
       <c r="Q158" s="58"/>
     </row>
-    <row r="159" spans="1:17" ht="22.5">
+    <row r="159" spans="1:17" ht="22">
       <c r="A159" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -17686,7 +17652,7 @@
       <c r="P159" s="58"/>
       <c r="Q159" s="58"/>
     </row>
-    <row r="160" spans="1:17" ht="33.75">
+    <row r="160" spans="1:17" ht="33">
       <c r="A160" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -17720,7 +17686,7 @@
       <c r="P160" s="58"/>
       <c r="Q160" s="58"/>
     </row>
-    <row r="161" spans="1:17" ht="33.75">
+    <row r="161" spans="1:17" ht="33">
       <c r="A161" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -17754,7 +17720,7 @@
       <c r="P161" s="58"/>
       <c r="Q161" s="58"/>
     </row>
-    <row r="162" spans="1:17" ht="33.75">
+    <row r="162" spans="1:17" ht="33">
       <c r="A162" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -17788,7 +17754,7 @@
       <c r="P162" s="58"/>
       <c r="Q162" s="58"/>
     </row>
-    <row r="163" spans="1:17" ht="33.75">
+    <row r="163" spans="1:17" ht="33">
       <c r="A163" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -17822,7 +17788,7 @@
       <c r="P163" s="58"/>
       <c r="Q163" s="58"/>
     </row>
-    <row r="164" spans="1:17" ht="22.5">
+    <row r="164" spans="1:17" ht="22">
       <c r="A164" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -17858,7 +17824,7 @@
       <c r="P164" s="58"/>
       <c r="Q164" s="58"/>
     </row>
-    <row r="165" spans="1:17" ht="22.5">
+    <row r="165" spans="1:17" ht="22">
       <c r="A165" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -17892,7 +17858,7 @@
       <c r="P165" s="58"/>
       <c r="Q165" s="58"/>
     </row>
-    <row r="166" spans="1:17" ht="22.5">
+    <row r="166" spans="1:17" ht="22">
       <c r="A166" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -17926,7 +17892,7 @@
       <c r="P166" s="58"/>
       <c r="Q166" s="58"/>
     </row>
-    <row r="167" spans="1:17" ht="22.5">
+    <row r="167" spans="1:17" ht="22">
       <c r="A167" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -17960,7 +17926,7 @@
       <c r="P167" s="58"/>
       <c r="Q167" s="58"/>
     </row>
-    <row r="168" spans="1:17" ht="22.5">
+    <row r="168" spans="1:17" ht="22">
       <c r="A168" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -17994,7 +17960,7 @@
       <c r="P168" s="58"/>
       <c r="Q168" s="58"/>
     </row>
-    <row r="169" spans="1:17" ht="33.75">
+    <row r="169" spans="1:17" ht="33">
       <c r="A169" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -18028,7 +17994,7 @@
       <c r="P169" s="58"/>
       <c r="Q169" s="58"/>
     </row>
-    <row r="170" spans="1:17" ht="22.5">
+    <row r="170" spans="1:17" ht="22">
       <c r="A170" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -18062,7 +18028,7 @@
       <c r="P170" s="58"/>
       <c r="Q170" s="58"/>
     </row>
-    <row r="171" spans="1:17" ht="22.5">
+    <row r="171" spans="1:17" ht="22">
       <c r="A171" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -18098,7 +18064,7 @@
       <c r="P171" s="58"/>
       <c r="Q171" s="58"/>
     </row>
-    <row r="172" spans="1:17" ht="33.75">
+    <row r="172" spans="1:17" ht="33">
       <c r="A172" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -18132,7 +18098,7 @@
       <c r="P172" s="58"/>
       <c r="Q172" s="58"/>
     </row>
-    <row r="173" spans="1:17" ht="33.75">
+    <row r="173" spans="1:17" ht="33">
       <c r="A173" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -18166,7 +18132,7 @@
       <c r="P173" s="58"/>
       <c r="Q173" s="58"/>
     </row>
-    <row r="174" spans="1:17" ht="45">
+    <row r="174" spans="1:17" ht="44">
       <c r="A174" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -18200,7 +18166,7 @@
       <c r="P174" s="58"/>
       <c r="Q174" s="58"/>
     </row>
-    <row r="175" spans="1:17" ht="45">
+    <row r="175" spans="1:17" ht="44">
       <c r="A175" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -18234,7 +18200,7 @@
       <c r="P175" s="58"/>
       <c r="Q175" s="58"/>
     </row>
-    <row r="176" spans="1:17" ht="33.75">
+    <row r="176" spans="1:17" ht="33">
       <c r="A176" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -18268,7 +18234,7 @@
       <c r="P176" s="58"/>
       <c r="Q176" s="58"/>
     </row>
-    <row r="177" spans="1:17" ht="45">
+    <row r="177" spans="1:17" ht="44">
       <c r="A177" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -18302,7 +18268,7 @@
       <c r="P177" s="58"/>
       <c r="Q177" s="58"/>
     </row>
-    <row r="178" spans="1:17" ht="45">
+    <row r="178" spans="1:17" ht="44">
       <c r="A178" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -18336,7 +18302,7 @@
       <c r="P178" s="58"/>
       <c r="Q178" s="58"/>
     </row>
-    <row r="179" spans="1:17" ht="22.5">
+    <row r="179" spans="1:17" ht="22">
       <c r="A179" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -18370,7 +18336,7 @@
       <c r="P179" s="58"/>
       <c r="Q179" s="58"/>
     </row>
-    <row r="180" spans="1:17" ht="33.75">
+    <row r="180" spans="1:17" ht="33">
       <c r="A180" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -18406,7 +18372,7 @@
       <c r="P180" s="58"/>
       <c r="Q180" s="58"/>
     </row>
-    <row r="181" spans="1:17" ht="22.5">
+    <row r="181" spans="1:17" ht="22">
       <c r="A181" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -18442,7 +18408,7 @@
       <c r="P181" s="58"/>
       <c r="Q181" s="58"/>
     </row>
-    <row r="182" spans="1:17" ht="22.5">
+    <row r="182" spans="1:17" ht="22">
       <c r="A182" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -18484,7 +18450,7 @@
       <c r="P182" s="58"/>
       <c r="Q182" s="58"/>
     </row>
-    <row r="183" spans="1:17" ht="22.5">
+    <row r="183" spans="1:17" ht="22">
       <c r="A183" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -18522,7 +18488,7 @@
       <c r="P183" s="58"/>
       <c r="Q183" s="58"/>
     </row>
-    <row r="184" spans="1:17" ht="22.5">
+    <row r="184" spans="1:17" ht="22">
       <c r="A184" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -18560,7 +18526,7 @@
       <c r="P184" s="58"/>
       <c r="Q184" s="58"/>
     </row>
-    <row r="185" spans="1:17" ht="22.5">
+    <row r="185" spans="1:17" ht="22">
       <c r="A185" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -18602,7 +18568,7 @@
       <c r="P185" s="58"/>
       <c r="Q185" s="58"/>
     </row>
-    <row r="186" spans="1:17" ht="22.5">
+    <row r="186" spans="1:17" ht="22">
       <c r="A186" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -18638,7 +18604,7 @@
       <c r="P186" s="58"/>
       <c r="Q186" s="58"/>
     </row>
-    <row r="187" spans="1:17" ht="22.5">
+    <row r="187" spans="1:17" ht="22">
       <c r="A187" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -18672,7 +18638,7 @@
       <c r="P187" s="58"/>
       <c r="Q187" s="58"/>
     </row>
-    <row r="188" spans="1:17" ht="22.5">
+    <row r="188" spans="1:17" ht="22">
       <c r="A188" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -18708,7 +18674,7 @@
       <c r="P188" s="58"/>
       <c r="Q188" s="58"/>
     </row>
-    <row r="189" spans="1:17" ht="22.5">
+    <row r="189" spans="1:17" ht="22">
       <c r="A189" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -18742,7 +18708,7 @@
       <c r="P189" s="58"/>
       <c r="Q189" s="58"/>
     </row>
-    <row r="190" spans="1:17" ht="33.75">
+    <row r="190" spans="1:17" ht="33">
       <c r="A190" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -18780,7 +18746,7 @@
       <c r="P190" s="58"/>
       <c r="Q190" s="58"/>
     </row>
-    <row r="191" spans="1:17" ht="22.5">
+    <row r="191" spans="1:17" ht="22">
       <c r="A191" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -18820,7 +18786,7 @@
       <c r="P191" s="58"/>
       <c r="Q191" s="58"/>
     </row>
-    <row r="192" spans="1:17" ht="22.5">
+    <row r="192" spans="1:17" ht="22">
       <c r="A192" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -18854,7 +18820,7 @@
       <c r="P192" s="58"/>
       <c r="Q192" s="58"/>
     </row>
-    <row r="193" spans="1:17" ht="22.5">
+    <row r="193" spans="1:17" ht="22">
       <c r="A193" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -18888,7 +18854,7 @@
       <c r="P193" s="58"/>
       <c r="Q193" s="58"/>
     </row>
-    <row r="194" spans="1:17" ht="22.5">
+    <row r="194" spans="1:17" ht="22">
       <c r="A194" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -18922,7 +18888,7 @@
       <c r="P194" s="58"/>
       <c r="Q194" s="58"/>
     </row>
-    <row r="195" spans="1:17" ht="22.5">
+    <row r="195" spans="1:17" ht="22">
       <c r="A195" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -18956,7 +18922,7 @@
       <c r="P195" s="58"/>
       <c r="Q195" s="58"/>
     </row>
-    <row r="196" spans="1:17" ht="22.5">
+    <row r="196" spans="1:17" ht="22">
       <c r="A196" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -18990,7 +18956,7 @@
       <c r="P196" s="58"/>
       <c r="Q196" s="58"/>
     </row>
-    <row r="197" spans="1:17" ht="22.5">
+    <row r="197" spans="1:17" ht="22">
       <c r="A197" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -19024,7 +18990,7 @@
       <c r="P197" s="58"/>
       <c r="Q197" s="58"/>
     </row>
-    <row r="198" spans="1:17" ht="22.5">
+    <row r="198" spans="1:17" ht="22">
       <c r="A198" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -19060,7 +19026,7 @@
       <c r="P198" s="58"/>
       <c r="Q198" s="58"/>
     </row>
-    <row r="199" spans="1:17" ht="22.5">
+    <row r="199" spans="1:17" ht="22">
       <c r="A199" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -19098,7 +19064,7 @@
       <c r="P199" s="58"/>
       <c r="Q199" s="58"/>
     </row>
-    <row r="200" spans="1:17" ht="22.5">
+    <row r="200" spans="1:17" ht="22">
       <c r="A200" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -19166,7 +19132,7 @@
       <c r="P201" s="58"/>
       <c r="Q201" s="58"/>
     </row>
-    <row r="202" spans="1:17" ht="22.5">
+    <row r="202" spans="1:17" ht="22">
       <c r="A202" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -19200,7 +19166,7 @@
       <c r="P202" s="58"/>
       <c r="Q202" s="58"/>
     </row>
-    <row r="203" spans="1:17" ht="33.75">
+    <row r="203" spans="1:17" ht="33">
       <c r="A203" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -19234,7 +19200,7 @@
       <c r="P203" s="58"/>
       <c r="Q203" s="58"/>
     </row>
-    <row r="204" spans="1:17" ht="33.75">
+    <row r="204" spans="1:17" ht="33">
       <c r="A204" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -19268,7 +19234,7 @@
       <c r="P204" s="58"/>
       <c r="Q204" s="58"/>
     </row>
-    <row r="205" spans="1:17" ht="45">
+    <row r="205" spans="1:17" ht="44">
       <c r="A205" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -19302,7 +19268,7 @@
       <c r="P205" s="58"/>
       <c r="Q205" s="58"/>
     </row>
-    <row r="206" spans="1:17" ht="33.75">
+    <row r="206" spans="1:17" ht="33">
       <c r="A206" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -19336,7 +19302,7 @@
       <c r="P206" s="58"/>
       <c r="Q206" s="58"/>
     </row>
-    <row r="207" spans="1:17" ht="33.75">
+    <row r="207" spans="1:17" ht="33">
       <c r="A207" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -19370,7 +19336,7 @@
       <c r="P207" s="58"/>
       <c r="Q207" s="58"/>
     </row>
-    <row r="208" spans="1:17" ht="22.5">
+    <row r="208" spans="1:17" ht="22">
       <c r="A208" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -19404,7 +19370,7 @@
       <c r="P208" s="58"/>
       <c r="Q208" s="58"/>
     </row>
-    <row r="209" spans="1:17" ht="22.5">
+    <row r="209" spans="1:17" ht="22">
       <c r="A209" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -19438,7 +19404,7 @@
       <c r="P209" s="58"/>
       <c r="Q209" s="58"/>
     </row>
-    <row r="210" spans="1:17" ht="33.75">
+    <row r="210" spans="1:17" ht="33">
       <c r="A210" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -19472,7 +19438,7 @@
       <c r="P210" s="58"/>
       <c r="Q210" s="58"/>
     </row>
-    <row r="211" spans="1:17" ht="22.5">
+    <row r="211" spans="1:17" ht="22">
       <c r="A211" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -19506,7 +19472,7 @@
       <c r="P211" s="58"/>
       <c r="Q211" s="58"/>
     </row>
-    <row r="212" spans="1:17" ht="22.5">
+    <row r="212" spans="1:17" ht="22">
       <c r="A212" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -19544,7 +19510,7 @@
       <c r="P212" s="58"/>
       <c r="Q212" s="58"/>
     </row>
-    <row r="213" spans="1:17" ht="22.5">
+    <row r="213" spans="1:17" ht="22">
       <c r="A213" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -19578,7 +19544,7 @@
       <c r="P213" s="58"/>
       <c r="Q213" s="58"/>
     </row>
-    <row r="214" spans="1:17" ht="22.5">
+    <row r="214" spans="1:17" ht="22">
       <c r="A214" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -19646,7 +19612,7 @@
       <c r="P215" s="58"/>
       <c r="Q215" s="58"/>
     </row>
-    <row r="216" spans="1:17" ht="22.5">
+    <row r="216" spans="1:17" ht="22">
       <c r="A216" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -19680,7 +19646,7 @@
       <c r="P216" s="58"/>
       <c r="Q216" s="58"/>
     </row>
-    <row r="217" spans="1:17" ht="45">
+    <row r="217" spans="1:17" ht="44">
       <c r="A217" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -19714,7 +19680,7 @@
       <c r="P217" s="58"/>
       <c r="Q217" s="58"/>
     </row>
-    <row r="218" spans="1:17" ht="33.75">
+    <row r="218" spans="1:17" ht="33">
       <c r="A218" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -19748,7 +19714,7 @@
       <c r="P218" s="58"/>
       <c r="Q218" s="58"/>
     </row>
-    <row r="219" spans="1:17" ht="33.75">
+    <row r="219" spans="1:17" ht="33">
       <c r="A219" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -19782,7 +19748,7 @@
       <c r="P219" s="58"/>
       <c r="Q219" s="58"/>
     </row>
-    <row r="220" spans="1:17" ht="45">
+    <row r="220" spans="1:17" ht="44">
       <c r="A220" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -19816,7 +19782,7 @@
       <c r="P220" s="58"/>
       <c r="Q220" s="58"/>
     </row>
-    <row r="221" spans="1:17" ht="33.75">
+    <row r="221" spans="1:17" ht="33">
       <c r="A221" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -19850,7 +19816,7 @@
       <c r="P221" s="58"/>
       <c r="Q221" s="58"/>
     </row>
-    <row r="222" spans="1:17" ht="33.75">
+    <row r="222" spans="1:17" ht="33">
       <c r="A222" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -19884,7 +19850,7 @@
       <c r="P222" s="58"/>
       <c r="Q222" s="58"/>
     </row>
-    <row r="223" spans="1:17" ht="22.5">
+    <row r="223" spans="1:17" ht="22">
       <c r="A223" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -19918,7 +19884,7 @@
       <c r="P223" s="58"/>
       <c r="Q223" s="58"/>
     </row>
-    <row r="224" spans="1:17" ht="22.5">
+    <row r="224" spans="1:17" ht="22">
       <c r="A224" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -19952,7 +19918,7 @@
       <c r="P224" s="58"/>
       <c r="Q224" s="58"/>
     </row>
-    <row r="225" spans="1:17" ht="33.75">
+    <row r="225" spans="1:17" ht="33">
       <c r="A225" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -19986,7 +19952,7 @@
       <c r="P225" s="58"/>
       <c r="Q225" s="58"/>
     </row>
-    <row r="226" spans="1:17" ht="22.5">
+    <row r="226" spans="1:17" ht="22">
       <c r="A226" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -20020,7 +19986,7 @@
       <c r="P226" s="58"/>
       <c r="Q226" s="58"/>
     </row>
-    <row r="227" spans="1:17" ht="45">
+    <row r="227" spans="1:17" ht="44">
       <c r="A227" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -20056,7 +20022,7 @@
       <c r="P227" s="58"/>
       <c r="Q227" s="58"/>
     </row>
-    <row r="228" spans="1:17" ht="45">
+    <row r="228" spans="1:17" ht="44">
       <c r="A228" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -20090,7 +20056,7 @@
       <c r="P228" s="58"/>
       <c r="Q228" s="58"/>
     </row>
-    <row r="229" spans="1:17" ht="33.75">
+    <row r="229" spans="1:17" ht="33">
       <c r="A229" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -20124,7 +20090,7 @@
       <c r="P229" s="58"/>
       <c r="Q229" s="58"/>
     </row>
-    <row r="230" spans="1:17" ht="33.75">
+    <row r="230" spans="1:17" ht="33">
       <c r="A230" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -20160,7 +20126,7 @@
       <c r="P230" s="58"/>
       <c r="Q230" s="58"/>
     </row>
-    <row r="231" spans="1:17" ht="22.5">
+    <row r="231" spans="1:17" ht="22">
       <c r="A231" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -20196,7 +20162,7 @@
       <c r="P231" s="58"/>
       <c r="Q231" s="58"/>
     </row>
-    <row r="232" spans="1:17" ht="22.5">
+    <row r="232" spans="1:17" ht="22">
       <c r="A232" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -20238,7 +20204,7 @@
       <c r="P232" s="58"/>
       <c r="Q232" s="58"/>
     </row>
-    <row r="233" spans="1:17" ht="22.5">
+    <row r="233" spans="1:17" ht="22">
       <c r="A233" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -20274,7 +20240,7 @@
       <c r="P233" s="58"/>
       <c r="Q233" s="58"/>
     </row>
-    <row r="234" spans="1:17" ht="22.5">
+    <row r="234" spans="1:17" ht="22">
       <c r="A234" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -20308,7 +20274,7 @@
       <c r="P234" s="58"/>
       <c r="Q234" s="58"/>
     </row>
-    <row r="235" spans="1:17" ht="22.5">
+    <row r="235" spans="1:17" ht="22">
       <c r="A235" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -20342,7 +20308,7 @@
       <c r="P235" s="58"/>
       <c r="Q235" s="58"/>
     </row>
-    <row r="236" spans="1:17" ht="22.5">
+    <row r="236" spans="1:17" ht="22">
       <c r="A236" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -20376,7 +20342,7 @@
       <c r="P236" s="58"/>
       <c r="Q236" s="58"/>
     </row>
-    <row r="237" spans="1:17" ht="33.75">
+    <row r="237" spans="1:17" ht="33">
       <c r="A237" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -20410,7 +20376,7 @@
       <c r="P237" s="58"/>
       <c r="Q237" s="58"/>
     </row>
-    <row r="238" spans="1:17" ht="33.75">
+    <row r="238" spans="1:17" ht="33">
       <c r="A238" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -20446,7 +20412,7 @@
       <c r="P238" s="58"/>
       <c r="Q238" s="58"/>
     </row>
-    <row r="239" spans="1:17" ht="33.75">
+    <row r="239" spans="1:17" ht="33">
       <c r="A239" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -20480,7 +20446,7 @@
       <c r="P239" s="58"/>
       <c r="Q239" s="58"/>
     </row>
-    <row r="240" spans="1:17" ht="45">
+    <row r="240" spans="1:17" ht="44">
       <c r="A240" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -20514,7 +20480,7 @@
       <c r="P240" s="58"/>
       <c r="Q240" s="58"/>
     </row>
-    <row r="241" spans="1:17" ht="45">
+    <row r="241" spans="1:17" ht="44">
       <c r="A241" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -20548,7 +20514,7 @@
       <c r="P241" s="58"/>
       <c r="Q241" s="58"/>
     </row>
-    <row r="242" spans="1:17" ht="33.75">
+    <row r="242" spans="1:17" ht="33">
       <c r="A242" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -20582,7 +20548,7 @@
       <c r="P242" s="58"/>
       <c r="Q242" s="58"/>
     </row>
-    <row r="243" spans="1:17" ht="33.75">
+    <row r="243" spans="1:17" ht="33">
       <c r="A243" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -20618,7 +20584,7 @@
       <c r="P243" s="58"/>
       <c r="Q243" s="58"/>
     </row>
-    <row r="244" spans="1:17" ht="33.75">
+    <row r="244" spans="1:17" ht="33">
       <c r="A244" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -20658,7 +20624,7 @@
       <c r="P244" s="58"/>
       <c r="Q244" s="58"/>
     </row>
-    <row r="245" spans="1:17" ht="22.5">
+    <row r="245" spans="1:17" ht="22">
       <c r="A245" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -20700,7 +20666,7 @@
       <c r="P245" s="58"/>
       <c r="Q245" s="58"/>
     </row>
-    <row r="246" spans="1:17" ht="22.5">
+    <row r="246" spans="1:17" ht="22">
       <c r="A246" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -20734,7 +20700,7 @@
       <c r="P246" s="58"/>
       <c r="Q246" s="58"/>
     </row>
-    <row r="247" spans="1:17" ht="33.75">
+    <row r="247" spans="1:17" ht="33">
       <c r="A247" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -20772,7 +20738,7 @@
       <c r="P247" s="58"/>
       <c r="Q247" s="58"/>
     </row>
-    <row r="248" spans="1:17" ht="33.75">
+    <row r="248" spans="1:17" ht="33">
       <c r="A248" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -20806,7 +20772,7 @@
       <c r="P248" s="58"/>
       <c r="Q248" s="58"/>
     </row>
-    <row r="249" spans="1:17" ht="33.75">
+    <row r="249" spans="1:17" ht="33">
       <c r="A249" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -20846,7 +20812,7 @@
       <c r="P249" s="58"/>
       <c r="Q249" s="58"/>
     </row>
-    <row r="250" spans="1:17" ht="33.75">
+    <row r="250" spans="1:17" ht="33">
       <c r="A250" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -20882,7 +20848,7 @@
       <c r="P250" s="58"/>
       <c r="Q250" s="58"/>
     </row>
-    <row r="251" spans="1:17" ht="33.75">
+    <row r="251" spans="1:17" ht="33">
       <c r="A251" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -20918,7 +20884,7 @@
       <c r="P251" s="58"/>
       <c r="Q251" s="58"/>
     </row>
-    <row r="252" spans="1:17" ht="33.75">
+    <row r="252" spans="1:17" ht="33">
       <c r="A252" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -20954,7 +20920,7 @@
       <c r="P252" s="58"/>
       <c r="Q252" s="58"/>
     </row>
-    <row r="253" spans="1:17" ht="22.5">
+    <row r="253" spans="1:17" ht="22">
       <c r="A253" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -20992,7 +20958,7 @@
       <c r="P253" s="58"/>
       <c r="Q253" s="58"/>
     </row>
-    <row r="254" spans="1:17" ht="22.5">
+    <row r="254" spans="1:17" ht="22">
       <c r="A254" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -21026,7 +20992,7 @@
       <c r="P254" s="58"/>
       <c r="Q254" s="58"/>
     </row>
-    <row r="255" spans="1:17" ht="33.75">
+    <row r="255" spans="1:17" ht="33">
       <c r="A255" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -21062,7 +21028,7 @@
       <c r="P255" s="58"/>
       <c r="Q255" s="58"/>
     </row>
-    <row r="256" spans="1:17" ht="33.75">
+    <row r="256" spans="1:17" ht="33">
       <c r="A256" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -21096,7 +21062,7 @@
       <c r="P256" s="58"/>
       <c r="Q256" s="58"/>
     </row>
-    <row r="257" spans="1:17" ht="33.75">
+    <row r="257" spans="1:17" ht="33">
       <c r="A257" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -21130,7 +21096,7 @@
       <c r="P257" s="58"/>
       <c r="Q257" s="58"/>
     </row>
-    <row r="258" spans="1:17" ht="33.75">
+    <row r="258" spans="1:17" ht="33">
       <c r="A258" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -21164,7 +21130,7 @@
       <c r="P258" s="58"/>
       <c r="Q258" s="58"/>
     </row>
-    <row r="259" spans="1:17" ht="33.75">
+    <row r="259" spans="1:17" ht="33">
       <c r="A259" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -21198,7 +21164,7 @@
       <c r="P259" s="58"/>
       <c r="Q259" s="58"/>
     </row>
-    <row r="260" spans="1:17" ht="22.5">
+    <row r="260" spans="1:17" ht="22">
       <c r="A260" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -21232,7 +21198,7 @@
       <c r="P260" s="58"/>
       <c r="Q260" s="58"/>
     </row>
-    <row r="261" spans="1:17" ht="22.5">
+    <row r="261" spans="1:17" ht="22">
       <c r="A261" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -21266,7 +21232,7 @@
       <c r="P261" s="58"/>
       <c r="Q261" s="58"/>
     </row>
-    <row r="262" spans="1:17" ht="33.75">
+    <row r="262" spans="1:17" ht="33">
       <c r="A262" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -21300,7 +21266,7 @@
       <c r="P262" s="58"/>
       <c r="Q262" s="58"/>
     </row>
-    <row r="263" spans="1:17" ht="33.75">
+    <row r="263" spans="1:17" ht="33">
       <c r="A263" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -21334,7 +21300,7 @@
       <c r="P263" s="58"/>
       <c r="Q263" s="58"/>
     </row>
-    <row r="264" spans="1:17" ht="33.75">
+    <row r="264" spans="1:17" ht="33">
       <c r="A264" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -21368,7 +21334,7 @@
       <c r="P264" s="58"/>
       <c r="Q264" s="58"/>
     </row>
-    <row r="265" spans="1:17" ht="33.75">
+    <row r="265" spans="1:17" ht="33">
       <c r="A265" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -21472,7 +21438,7 @@
       <c r="P267" s="58"/>
       <c r="Q267" s="58"/>
     </row>
-    <row r="268" spans="1:17" ht="22.5">
+    <row r="268" spans="1:17" ht="22">
       <c r="A268" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -21506,7 +21472,7 @@
       <c r="P268" s="58"/>
       <c r="Q268" s="58"/>
     </row>
-    <row r="269" spans="1:17" ht="22.5">
+    <row r="269" spans="1:17" ht="22">
       <c r="A269" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -21540,7 +21506,7 @@
       <c r="P269" s="58"/>
       <c r="Q269" s="58"/>
     </row>
-    <row r="270" spans="1:17" ht="22.5">
+    <row r="270" spans="1:17" ht="22">
       <c r="A270" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -21574,7 +21540,7 @@
       <c r="P270" s="58"/>
       <c r="Q270" s="58"/>
     </row>
-    <row r="271" spans="1:17" ht="33.75">
+    <row r="271" spans="1:17" ht="33">
       <c r="A271" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -21608,7 +21574,7 @@
       <c r="P271" s="58"/>
       <c r="Q271" s="58"/>
     </row>
-    <row r="272" spans="1:17" ht="22.5">
+    <row r="272" spans="1:17" ht="22">
       <c r="A272" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -21644,7 +21610,7 @@
       <c r="P272" s="58"/>
       <c r="Q272" s="58"/>
     </row>
-    <row r="273" spans="1:17" ht="33.75">
+    <row r="273" spans="1:17" ht="33">
       <c r="A273" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -21678,7 +21644,7 @@
       <c r="P273" s="58"/>
       <c r="Q273" s="58"/>
     </row>
-    <row r="274" spans="1:17" ht="45">
+    <row r="274" spans="1:17" ht="44">
       <c r="A274" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -21712,7 +21678,7 @@
       <c r="P274" s="58"/>
       <c r="Q274" s="58"/>
     </row>
-    <row r="275" spans="1:17" ht="45">
+    <row r="275" spans="1:17" ht="44">
       <c r="A275" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -21746,7 +21712,7 @@
       <c r="P275" s="58"/>
       <c r="Q275" s="58"/>
     </row>
-    <row r="276" spans="1:17" ht="22.5">
+    <row r="276" spans="1:17" ht="22">
       <c r="A276" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -21780,7 +21746,7 @@
       <c r="P276" s="58"/>
       <c r="Q276" s="58"/>
     </row>
-    <row r="277" spans="1:17" ht="45">
+    <row r="277" spans="1:17" ht="44">
       <c r="A277" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -21814,7 +21780,7 @@
       <c r="P277" s="58"/>
       <c r="Q277" s="58"/>
     </row>
-    <row r="278" spans="1:17" ht="45">
+    <row r="278" spans="1:17" ht="44">
       <c r="A278" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -21848,7 +21814,7 @@
       <c r="P278" s="58"/>
       <c r="Q278" s="58"/>
     </row>
-    <row r="279" spans="1:17" ht="22.5">
+    <row r="279" spans="1:17" ht="22">
       <c r="A279" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -21882,7 +21848,7 @@
       <c r="P279" s="58"/>
       <c r="Q279" s="58"/>
     </row>
-    <row r="280" spans="1:17" ht="22.5">
+    <row r="280" spans="1:17" ht="22">
       <c r="A280" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -21918,7 +21884,7 @@
       <c r="P280" s="58"/>
       <c r="Q280" s="58"/>
     </row>
-    <row r="281" spans="1:17" ht="22.5">
+    <row r="281" spans="1:17" ht="22">
       <c r="A281" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -21960,7 +21926,7 @@
       <c r="P281" s="58"/>
       <c r="Q281" s="58"/>
     </row>
-    <row r="282" spans="1:17" ht="22.5">
+    <row r="282" spans="1:17" ht="22">
       <c r="A282" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -21994,7 +21960,7 @@
       <c r="P282" s="58"/>
       <c r="Q282" s="58"/>
     </row>
-    <row r="283" spans="1:17" ht="22.5">
+    <row r="283" spans="1:17" ht="22">
       <c r="A283" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -22028,7 +21994,7 @@
       <c r="P283" s="58"/>
       <c r="Q283" s="58"/>
     </row>
-    <row r="284" spans="1:17" ht="22.5">
+    <row r="284" spans="1:17" ht="22">
       <c r="A284" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -22062,7 +22028,7 @@
       <c r="P284" s="58"/>
       <c r="Q284" s="58"/>
     </row>
-    <row r="285" spans="1:17" ht="22.5">
+    <row r="285" spans="1:17" ht="22">
       <c r="A285" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -22102,7 +22068,7 @@
       <c r="P285" s="58"/>
       <c r="Q285" s="58"/>
     </row>
-    <row r="286" spans="1:17" ht="22.5">
+    <row r="286" spans="1:17" ht="22">
       <c r="A286" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -22138,7 +22104,7 @@
       <c r="P286" s="58"/>
       <c r="Q286" s="58"/>
     </row>
-    <row r="287" spans="1:17" ht="22.5">
+    <row r="287" spans="1:17" ht="22">
       <c r="A287" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -22174,7 +22140,7 @@
       <c r="P287" s="58"/>
       <c r="Q287" s="58"/>
     </row>
-    <row r="288" spans="1:17" ht="22.5">
+    <row r="288" spans="1:17" ht="22">
       <c r="A288" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -22210,7 +22176,7 @@
       <c r="P288" s="58"/>
       <c r="Q288" s="58"/>
     </row>
-    <row r="289" spans="1:17" ht="22.5">
+    <row r="289" spans="1:17" ht="22">
       <c r="A289" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -22248,7 +22214,7 @@
       <c r="P289" s="58"/>
       <c r="Q289" s="58"/>
     </row>
-    <row r="290" spans="1:17" ht="22.5">
+    <row r="290" spans="1:17" ht="22">
       <c r="A290" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -22282,7 +22248,7 @@
       <c r="P290" s="58"/>
       <c r="Q290" s="58"/>
     </row>
-    <row r="291" spans="1:17" ht="33.75">
+    <row r="291" spans="1:17" ht="33">
       <c r="A291" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -22316,7 +22282,7 @@
       <c r="P291" s="58"/>
       <c r="Q291" s="58"/>
     </row>
-    <row r="292" spans="1:17" ht="33.75">
+    <row r="292" spans="1:17" ht="33">
       <c r="A292" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -22350,7 +22316,7 @@
       <c r="P292" s="58"/>
       <c r="Q292" s="58"/>
     </row>
-    <row r="293" spans="1:17" ht="33.75">
+    <row r="293" spans="1:17" ht="33">
       <c r="A293" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -22384,7 +22350,7 @@
       <c r="P293" s="58"/>
       <c r="Q293" s="58"/>
     </row>
-    <row r="294" spans="1:17" ht="33.75">
+    <row r="294" spans="1:17" ht="33">
       <c r="A294" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -22418,7 +22384,7 @@
       <c r="P294" s="58"/>
       <c r="Q294" s="58"/>
     </row>
-    <row r="295" spans="1:17" ht="33.75">
+    <row r="295" spans="1:17" ht="33">
       <c r="A295" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -22452,7 +22418,7 @@
       <c r="P295" s="58"/>
       <c r="Q295" s="58"/>
     </row>
-    <row r="296" spans="1:17" ht="22.5">
+    <row r="296" spans="1:17" ht="22">
       <c r="A296" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -22486,7 +22452,7 @@
       <c r="P296" s="58"/>
       <c r="Q296" s="58"/>
     </row>
-    <row r="297" spans="1:17" ht="22.5">
+    <row r="297" spans="1:17" ht="22">
       <c r="A297" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
@@ -22534,7 +22500,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -22555,17 +22521,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="3" width="8.625" style="28" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="62" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="13.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.625" style="28" customWidth="1"/>
-    <col min="10" max="11" width="23.625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="28" customWidth="1"/>
-    <col min="13" max="18" width="8.625" style="28" customWidth="1"/>
+    <col min="1" max="3" width="8.58203125" style="28" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="37.58203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="40.58203125" style="62" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="13.58203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="23.58203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="15.58203125" style="28" customWidth="1"/>
+    <col min="13" max="18" width="8.58203125" style="28" customWidth="1"/>
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -22611,7 +22577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="11.5" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -22631,7 +22597,7 @@
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickTop="1"/>
+    <row r="9" spans="1:18" ht="11.5" thickTop="1"/>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="33" t="s">
         <v>30</v>
@@ -22688,7 +22654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="22.5">
+    <row r="11" spans="1:18" ht="22">
       <c r="A11" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -22731,7 +22697,7 @@
       <c r="Q11" s="69"/>
       <c r="R11" s="57"/>
     </row>
-    <row r="12" spans="1:18" ht="22.5">
+    <row r="12" spans="1:18" ht="22">
       <c r="A12" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -22768,7 +22734,7 @@
       <c r="Q12" s="69"/>
       <c r="R12" s="57"/>
     </row>
-    <row r="13" spans="1:18" ht="33.75">
+    <row r="13" spans="1:18" ht="33">
       <c r="A13" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -22807,7 +22773,7 @@
       <c r="Q13" s="69"/>
       <c r="R13" s="57"/>
     </row>
-    <row r="14" spans="1:18" ht="22.5">
+    <row r="14" spans="1:18" ht="22">
       <c r="A14" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -22842,7 +22808,7 @@
       <c r="Q14" s="69"/>
       <c r="R14" s="57"/>
     </row>
-    <row r="15" spans="1:18" ht="22.5">
+    <row r="15" spans="1:18" ht="22">
       <c r="A15" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -22877,7 +22843,7 @@
       <c r="Q15" s="69"/>
       <c r="R15" s="57"/>
     </row>
-    <row r="16" spans="1:18" ht="22.5">
+    <row r="16" spans="1:18" ht="22">
       <c r="A16" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -22912,7 +22878,7 @@
       <c r="Q16" s="69"/>
       <c r="R16" s="57"/>
     </row>
-    <row r="17" spans="1:18" ht="33.75">
+    <row r="17" spans="1:18" ht="33">
       <c r="A17" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -22947,7 +22913,7 @@
       <c r="Q17" s="69"/>
       <c r="R17" s="57"/>
     </row>
-    <row r="18" spans="1:18" ht="22.5">
+    <row r="18" spans="1:18" ht="22">
       <c r="A18" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -22986,7 +22952,7 @@
       <c r="Q18" s="69"/>
       <c r="R18" s="57"/>
     </row>
-    <row r="19" spans="1:18" ht="22.5">
+    <row r="19" spans="1:18" ht="22">
       <c r="A19" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -23021,7 +22987,7 @@
       <c r="Q19" s="69"/>
       <c r="R19" s="57"/>
     </row>
-    <row r="20" spans="1:18" ht="22.5">
+    <row r="20" spans="1:18" ht="22">
       <c r="A20" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -23056,7 +23022,7 @@
       <c r="Q20" s="69"/>
       <c r="R20" s="57"/>
     </row>
-    <row r="21" spans="1:18" ht="22.5">
+    <row r="21" spans="1:18" ht="22">
       <c r="A21" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -23093,7 +23059,7 @@
       <c r="Q21" s="69"/>
       <c r="R21" s="57"/>
     </row>
-    <row r="22" spans="1:18" ht="22.5">
+    <row r="22" spans="1:18" ht="22">
       <c r="A22" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -23128,7 +23094,7 @@
       <c r="Q22" s="69"/>
       <c r="R22" s="57"/>
     </row>
-    <row r="23" spans="1:18" ht="22.5">
+    <row r="23" spans="1:18" ht="22">
       <c r="A23" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -23163,7 +23129,7 @@
       <c r="Q23" s="69"/>
       <c r="R23" s="57"/>
     </row>
-    <row r="24" spans="1:18" ht="22.5">
+    <row r="24" spans="1:18" ht="22">
       <c r="A24" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -23198,7 +23164,7 @@
       <c r="Q24" s="69"/>
       <c r="R24" s="57"/>
     </row>
-    <row r="25" spans="1:18" ht="22.5">
+    <row r="25" spans="1:18" ht="22">
       <c r="A25" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -23237,7 +23203,7 @@
       <c r="Q25" s="69"/>
       <c r="R25" s="57"/>
     </row>
-    <row r="26" spans="1:18" ht="22.5">
+    <row r="26" spans="1:18" ht="22">
       <c r="A26" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E26),
@@ -23272,7 +23238,7 @@
       <c r="Q26" s="69"/>
       <c r="R26" s="57"/>
     </row>
-    <row r="27" spans="1:18" ht="33.75">
+    <row r="27" spans="1:18" ht="33">
       <c r="A27" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -23311,7 +23277,7 @@
       <c r="Q27" s="69"/>
       <c r="R27" s="57"/>
     </row>
-    <row r="28" spans="1:18" ht="22.5">
+    <row r="28" spans="1:18" ht="22">
       <c r="A28" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -23346,7 +23312,7 @@
       <c r="Q28" s="69"/>
       <c r="R28" s="57"/>
     </row>
-    <row r="29" spans="1:18" ht="22.5">
+    <row r="29" spans="1:18" ht="22">
       <c r="A29" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -23383,7 +23349,7 @@
       <c r="Q29" s="69"/>
       <c r="R29" s="57"/>
     </row>
-    <row r="30" spans="1:18" ht="22.5">
+    <row r="30" spans="1:18" ht="22">
       <c r="A30" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -23418,7 +23384,7 @@
       <c r="Q30" s="69"/>
       <c r="R30" s="57"/>
     </row>
-    <row r="31" spans="1:18" ht="22.5">
+    <row r="31" spans="1:18" ht="22">
       <c r="A31" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -23453,7 +23419,7 @@
       <c r="Q31" s="69"/>
       <c r="R31" s="57"/>
     </row>
-    <row r="32" spans="1:18" ht="22.5">
+    <row r="32" spans="1:18" ht="22">
       <c r="A32" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -23488,7 +23454,7 @@
       <c r="Q32" s="69"/>
       <c r="R32" s="57"/>
     </row>
-    <row r="33" spans="1:18" ht="22.5">
+    <row r="33" spans="1:18" ht="22">
       <c r="A33" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -23525,7 +23491,7 @@
       <c r="Q33" s="69"/>
       <c r="R33" s="57"/>
     </row>
-    <row r="34" spans="1:18" ht="22.5">
+    <row r="34" spans="1:18" ht="22">
       <c r="A34" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -23560,7 +23526,7 @@
       <c r="Q34" s="69"/>
       <c r="R34" s="57"/>
     </row>
-    <row r="35" spans="1:18" ht="45">
+    <row r="35" spans="1:18" ht="44">
       <c r="A35" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -23597,7 +23563,7 @@
       <c r="Q35" s="69"/>
       <c r="R35" s="57"/>
     </row>
-    <row r="36" spans="1:18" ht="33.75">
+    <row r="36" spans="1:18" ht="33">
       <c r="A36" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -23638,7 +23604,7 @@
       <c r="Q36" s="69"/>
       <c r="R36" s="57"/>
     </row>
-    <row r="37" spans="1:18" ht="33.75">
+    <row r="37" spans="1:18" ht="33">
       <c r="A37" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -23673,7 +23639,7 @@
       <c r="Q37" s="69"/>
       <c r="R37" s="57"/>
     </row>
-    <row r="38" spans="1:18" ht="33.75">
+    <row r="38" spans="1:18" ht="33">
       <c r="A38" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -23708,7 +23674,7 @@
       <c r="Q38" s="69"/>
       <c r="R38" s="57"/>
     </row>
-    <row r="39" spans="1:18" ht="33.75">
+    <row r="39" spans="1:18" ht="33">
       <c r="A39" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -23743,7 +23709,7 @@
       <c r="Q39" s="69"/>
       <c r="R39" s="57"/>
     </row>
-    <row r="40" spans="1:18" ht="33.75">
+    <row r="40" spans="1:18" ht="33">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -23782,7 +23748,7 @@
       <c r="Q40" s="69"/>
       <c r="R40" s="57"/>
     </row>
-    <row r="41" spans="1:18" ht="22.5">
+    <row r="41" spans="1:18" ht="22">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -23817,7 +23783,7 @@
       <c r="Q41" s="69"/>
       <c r="R41" s="57"/>
     </row>
-    <row r="42" spans="1:18" ht="78.75">
+    <row r="42" spans="1:18" ht="77">
       <c r="A42" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -23872,7 +23838,7 @@
       <c r="Q42" s="114"/>
       <c r="R42" s="107"/>
     </row>
-    <row r="43" spans="1:18" ht="56.25">
+    <row r="43" spans="1:18" ht="55">
       <c r="A43" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -23921,7 +23887,7 @@
       <c r="Q43" s="114"/>
       <c r="R43" s="107"/>
     </row>
-    <row r="44" spans="1:18" ht="33.75">
+    <row r="44" spans="1:18" ht="33">
       <c r="A44" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -23960,7 +23926,7 @@
       <c r="Q44" s="69"/>
       <c r="R44" s="57"/>
     </row>
-    <row r="45" spans="1:18" ht="22.5">
+    <row r="45" spans="1:18" ht="22">
       <c r="A45" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -23995,7 +23961,7 @@
       <c r="Q45" s="69"/>
       <c r="R45" s="57"/>
     </row>
-    <row r="46" spans="1:18" ht="56.25">
+    <row r="46" spans="1:18" ht="55">
       <c r="A46" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -24052,7 +24018,7 @@
       <c r="Q46" s="77"/>
       <c r="R46" s="53"/>
     </row>
-    <row r="47" spans="1:18" ht="56.25">
+    <row r="47" spans="1:18" ht="55">
       <c r="A47" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -24099,7 +24065,7 @@
       <c r="Q47" s="77"/>
       <c r="R47" s="53"/>
     </row>
-    <row r="48" spans="1:18" ht="56.25">
+    <row r="48" spans="1:18" ht="55">
       <c r="A48" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -24148,7 +24114,7 @@
       <c r="Q48" s="77"/>
       <c r="R48" s="53"/>
     </row>
-    <row r="49" spans="1:18" ht="56.25">
+    <row r="49" spans="1:18" ht="55">
       <c r="A49" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -24197,7 +24163,7 @@
       <c r="Q49" s="77"/>
       <c r="R49" s="53"/>
     </row>
-    <row r="50" spans="1:18" ht="56.25">
+    <row r="50" spans="1:18" ht="55">
       <c r="A50" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -24246,7 +24212,7 @@
       <c r="Q50" s="114"/>
       <c r="R50" s="107"/>
     </row>
-    <row r="51" spans="1:18" ht="56.25">
+    <row r="51" spans="1:18" ht="55">
       <c r="A51" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -24293,7 +24259,7 @@
       <c r="Q51" s="114"/>
       <c r="R51" s="107"/>
     </row>
-    <row r="52" spans="1:18" ht="56.25">
+    <row r="52" spans="1:18" ht="55">
       <c r="A52" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -24340,7 +24306,7 @@
       <c r="Q52" s="114"/>
       <c r="R52" s="107"/>
     </row>
-    <row r="53" spans="1:18" ht="56.25">
+    <row r="53" spans="1:18" ht="55">
       <c r="A53" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -24389,7 +24355,7 @@
       <c r="Q53" s="114"/>
       <c r="R53" s="107"/>
     </row>
-    <row r="54" spans="1:18" ht="67.5">
+    <row r="54" spans="1:18" ht="66">
       <c r="A54" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -24440,7 +24406,7 @@
       <c r="Q54" s="77"/>
       <c r="R54" s="53"/>
     </row>
-    <row r="55" spans="1:18" ht="67.5">
+    <row r="55" spans="1:18" ht="66">
       <c r="A55" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -24489,7 +24455,7 @@
       <c r="Q55" s="77"/>
       <c r="R55" s="53"/>
     </row>
-    <row r="56" spans="1:18" ht="45">
+    <row r="56" spans="1:18" ht="44">
       <c r="A56" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -24538,7 +24504,7 @@
       <c r="Q56" s="77"/>
       <c r="R56" s="53"/>
     </row>
-    <row r="57" spans="1:18" ht="56.25">
+    <row r="57" spans="1:18" ht="55">
       <c r="A57" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -24589,7 +24555,7 @@
       <c r="Q57" s="114"/>
       <c r="R57" s="107"/>
     </row>
-    <row r="58" spans="1:18" ht="56.25">
+    <row r="58" spans="1:18" ht="55">
       <c r="A58" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -24640,7 +24606,7 @@
       <c r="Q58" s="114"/>
       <c r="R58" s="107"/>
     </row>
-    <row r="59" spans="1:18" ht="56.25">
+    <row r="59" spans="1:18" ht="55">
       <c r="A59" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -24691,7 +24657,7 @@
       <c r="Q59" s="114"/>
       <c r="R59" s="107"/>
     </row>
-    <row r="60" spans="1:18" ht="56.25">
+    <row r="60" spans="1:18" ht="55">
       <c r="A60" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -24740,7 +24706,7 @@
       <c r="Q60" s="114"/>
       <c r="R60" s="107"/>
     </row>
-    <row r="61" spans="1:18" ht="22.5">
+    <row r="61" spans="1:18" ht="22">
       <c r="A61" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -24775,7 +24741,7 @@
       <c r="Q61" s="69"/>
       <c r="R61" s="57"/>
     </row>
-    <row r="62" spans="1:18" ht="22.5">
+    <row r="62" spans="1:18" ht="22">
       <c r="A62" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -24810,7 +24776,7 @@
       <c r="Q62" s="69"/>
       <c r="R62" s="57"/>
     </row>
-    <row r="63" spans="1:18" ht="22.5">
+    <row r="63" spans="1:18" ht="22">
       <c r="A63" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -24845,7 +24811,7 @@
       <c r="Q63" s="69"/>
       <c r="R63" s="57"/>
     </row>
-    <row r="64" spans="1:18" ht="22.5">
+    <row r="64" spans="1:18" ht="22">
       <c r="A64" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -24880,7 +24846,7 @@
       <c r="Q64" s="69"/>
       <c r="R64" s="57"/>
     </row>
-    <row r="65" spans="1:18" ht="45">
+    <row r="65" spans="1:18" ht="44">
       <c r="A65" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -24917,7 +24883,7 @@
       <c r="Q65" s="69"/>
       <c r="R65" s="57"/>
     </row>
-    <row r="66" spans="1:18" ht="33.75">
+    <row r="66" spans="1:18" ht="33">
       <c r="A66" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -24954,7 +24920,7 @@
       <c r="Q66" s="69"/>
       <c r="R66" s="57"/>
     </row>
-    <row r="67" spans="1:18" ht="67.5">
+    <row r="67" spans="1:18" ht="66">
       <c r="A67" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -25007,7 +24973,7 @@
       <c r="Q67" s="77"/>
       <c r="R67" s="53"/>
     </row>
-    <row r="68" spans="1:18" ht="22.5">
+    <row r="68" spans="1:18" ht="22">
       <c r="A68" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -25046,7 +25012,7 @@
       <c r="Q68" s="69"/>
       <c r="R68" s="57"/>
     </row>
-    <row r="69" spans="1:18" ht="22.5">
+    <row r="69" spans="1:18" ht="22">
       <c r="A69" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -25081,7 +25047,7 @@
       <c r="Q69" s="69"/>
       <c r="R69" s="57"/>
     </row>
-    <row r="70" spans="1:18" ht="22.5">
+    <row r="70" spans="1:18" ht="22">
       <c r="A70" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -25116,7 +25082,7 @@
       <c r="Q70" s="69"/>
       <c r="R70" s="57"/>
     </row>
-    <row r="71" spans="1:18" ht="22.5">
+    <row r="71" spans="1:18" ht="22">
       <c r="A71" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -25151,7 +25117,7 @@
       <c r="Q71" s="69"/>
       <c r="R71" s="57"/>
     </row>
-    <row r="72" spans="1:18" ht="22.5">
+    <row r="72" spans="1:18" ht="22">
       <c r="A72" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -25186,7 +25152,7 @@
       <c r="Q72" s="69"/>
       <c r="R72" s="57"/>
     </row>
-    <row r="73" spans="1:18" ht="33.75">
+    <row r="73" spans="1:18" ht="33">
       <c r="A73" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -25223,7 +25189,7 @@
       <c r="Q73" s="69"/>
       <c r="R73" s="57"/>
     </row>
-    <row r="74" spans="1:18" ht="33.75">
+    <row r="74" spans="1:18" ht="33">
       <c r="A74" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -25258,7 +25224,7 @@
       <c r="Q74" s="69"/>
       <c r="R74" s="57"/>
     </row>
-    <row r="75" spans="1:18" ht="45">
+    <row r="75" spans="1:18" ht="44">
       <c r="A75" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -25293,7 +25259,7 @@
       <c r="Q75" s="69"/>
       <c r="R75" s="57"/>
     </row>
-    <row r="76" spans="1:18" ht="33.75">
+    <row r="76" spans="1:18" ht="33">
       <c r="A76" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -25328,7 +25294,7 @@
       <c r="Q76" s="69"/>
       <c r="R76" s="57"/>
     </row>
-    <row r="77" spans="1:18" ht="33.75">
+    <row r="77" spans="1:18" ht="33">
       <c r="A77" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -25363,7 +25329,7 @@
       <c r="Q77" s="69"/>
       <c r="R77" s="57"/>
     </row>
-    <row r="78" spans="1:18" ht="22.5">
+    <row r="78" spans="1:18" ht="22">
       <c r="A78" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -25398,7 +25364,7 @@
       <c r="Q78" s="69"/>
       <c r="R78" s="57"/>
     </row>
-    <row r="79" spans="1:18" ht="22.5">
+    <row r="79" spans="1:18" ht="22">
       <c r="A79" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -25433,7 +25399,7 @@
       <c r="Q79" s="69"/>
       <c r="R79" s="57"/>
     </row>
-    <row r="80" spans="1:18" ht="33.75">
+    <row r="80" spans="1:18" ht="33">
       <c r="A80" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -25468,7 +25434,7 @@
       <c r="Q80" s="69"/>
       <c r="R80" s="57"/>
     </row>
-    <row r="81" spans="1:18" ht="22.5">
+    <row r="81" spans="1:18" ht="22">
       <c r="A81" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -25542,7 +25508,7 @@
       <c r="Q82" s="69"/>
       <c r="R82" s="57"/>
     </row>
-    <row r="83" spans="1:18" ht="22.5">
+    <row r="83" spans="1:18" ht="22">
       <c r="A83" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -25612,7 +25578,7 @@
       <c r="Q84" s="69"/>
       <c r="R84" s="57"/>
     </row>
-    <row r="85" spans="1:18" ht="22.5">
+    <row r="85" spans="1:18" ht="22">
       <c r="A85" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -25647,7 +25613,7 @@
       <c r="Q85" s="69"/>
       <c r="R85" s="57"/>
     </row>
-    <row r="86" spans="1:18" ht="33.75">
+    <row r="86" spans="1:18" ht="33">
       <c r="A86" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -25682,7 +25648,7 @@
       <c r="Q86" s="69"/>
       <c r="R86" s="57"/>
     </row>
-    <row r="87" spans="1:18" ht="56.25">
+    <row r="87" spans="1:18" ht="55">
       <c r="A87" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -25736,7 +25702,7 @@
       <c r="Q87" s="114"/>
       <c r="R87" s="107"/>
     </row>
-    <row r="88" spans="1:18" ht="56.25">
+    <row r="88" spans="1:18" ht="55">
       <c r="A88" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -25782,7 +25748,7 @@
       <c r="Q88" s="114"/>
       <c r="R88" s="107"/>
     </row>
-    <row r="89" spans="1:18" ht="67.5">
+    <row r="89" spans="1:18" ht="66">
       <c r="A89" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -25828,7 +25794,7 @@
       <c r="Q89" s="114"/>
       <c r="R89" s="107"/>
     </row>
-    <row r="90" spans="1:18" ht="45">
+    <row r="90" spans="1:18" ht="44">
       <c r="A90" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -25874,7 +25840,7 @@
       <c r="Q90" s="114"/>
       <c r="R90" s="107"/>
     </row>
-    <row r="91" spans="1:18" ht="56.25">
+    <row r="91" spans="1:18" ht="55">
       <c r="A91" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -25925,7 +25891,7 @@
       <c r="Q91" s="77"/>
       <c r="R91" s="53"/>
     </row>
-    <row r="92" spans="1:18" ht="67.5">
+    <row r="92" spans="1:18" ht="66">
       <c r="A92" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -25976,7 +25942,7 @@
       <c r="Q92" s="77"/>
       <c r="R92" s="53"/>
     </row>
-    <row r="93" spans="1:18" ht="101.25">
+    <row r="93" spans="1:18" ht="99">
       <c r="A93" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -26023,7 +25989,7 @@
       <c r="Q93" s="77"/>
       <c r="R93" s="53"/>
     </row>
-    <row r="94" spans="1:18" ht="112.5">
+    <row r="94" spans="1:18" ht="110">
       <c r="A94" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -26072,7 +26038,7 @@
       <c r="Q94" s="77"/>
       <c r="R94" s="53"/>
     </row>
-    <row r="95" spans="1:18" ht="33.75">
+    <row r="95" spans="1:18" ht="33">
       <c r="A95" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -26109,7 +26075,7 @@
       <c r="Q95" s="69"/>
       <c r="R95" s="57"/>
     </row>
-    <row r="96" spans="1:18" ht="33.75">
+    <row r="96" spans="1:18" ht="33">
       <c r="A96" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -26144,7 +26110,7 @@
       <c r="Q96" s="69"/>
       <c r="R96" s="57"/>
     </row>
-    <row r="97" spans="1:18" ht="67.5">
+    <row r="97" spans="1:18" ht="66">
       <c r="A97" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -26195,7 +26161,7 @@
       <c r="Q97" s="77"/>
       <c r="R97" s="53"/>
     </row>
-    <row r="98" spans="1:18" ht="22.5">
+    <row r="98" spans="1:18" ht="22">
       <c r="A98" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -26232,7 +26198,7 @@
       <c r="Q98" s="69"/>
       <c r="R98" s="57"/>
     </row>
-    <row r="99" spans="1:18" ht="22.5">
+    <row r="99" spans="1:18" ht="22">
       <c r="A99" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -26310,7 +26276,7 @@
       <c r="Q100" s="69"/>
       <c r="R100" s="57"/>
     </row>
-    <row r="101" spans="1:18" ht="33.75">
+    <row r="101" spans="1:18" ht="33">
       <c r="A101" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -26347,7 +26313,7 @@
       <c r="Q101" s="69"/>
       <c r="R101" s="57"/>
     </row>
-    <row r="102" spans="1:18" ht="22.5">
+    <row r="102" spans="1:18" ht="22">
       <c r="A102" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -26388,7 +26354,7 @@
       <c r="Q102" s="69"/>
       <c r="R102" s="57"/>
     </row>
-    <row r="103" spans="1:18" ht="33.75">
+    <row r="103" spans="1:18" ht="33">
       <c r="A103" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -26460,7 +26426,7 @@
       <c r="Q104" s="69"/>
       <c r="R104" s="57"/>
     </row>
-    <row r="105" spans="1:18" ht="33.75">
+    <row r="105" spans="1:18" ht="33">
       <c r="A105" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -26497,7 +26463,7 @@
       <c r="Q105" s="69"/>
       <c r="R105" s="57"/>
     </row>
-    <row r="106" spans="1:18" ht="33.75">
+    <row r="106" spans="1:18" ht="33">
       <c r="A106" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -26532,7 +26498,7 @@
       <c r="Q106" s="69"/>
       <c r="R106" s="57"/>
     </row>
-    <row r="107" spans="1:18" ht="33.75">
+    <row r="107" spans="1:18" ht="33">
       <c r="A107" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -26569,7 +26535,7 @@
       <c r="Q107" s="69"/>
       <c r="R107" s="57"/>
     </row>
-    <row r="108" spans="1:18" ht="22.5">
+    <row r="108" spans="1:18" ht="22">
       <c r="A108" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -26610,7 +26576,7 @@
       <c r="Q108" s="69"/>
       <c r="R108" s="57"/>
     </row>
-    <row r="109" spans="1:18" ht="33.75">
+    <row r="109" spans="1:18" ht="33">
       <c r="A109" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -26680,7 +26646,7 @@
       <c r="Q110" s="69"/>
       <c r="R110" s="57"/>
     </row>
-    <row r="111" spans="1:18" ht="33.75">
+    <row r="111" spans="1:18" ht="33">
       <c r="A111" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -26715,7 +26681,7 @@
       <c r="Q111" s="69"/>
       <c r="R111" s="57"/>
     </row>
-    <row r="112" spans="1:18" ht="33.75">
+    <row r="112" spans="1:18" ht="33">
       <c r="A112" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -26750,7 +26716,7 @@
       <c r="Q112" s="69"/>
       <c r="R112" s="57"/>
     </row>
-    <row r="113" spans="1:18" ht="22.5">
+    <row r="113" spans="1:18" ht="22">
       <c r="A113" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -26787,7 +26753,7 @@
       <c r="Q113" s="69"/>
       <c r="R113" s="57"/>
     </row>
-    <row r="114" spans="1:18" ht="33.75">
+    <row r="114" spans="1:18" ht="33">
       <c r="A114" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -26857,7 +26823,7 @@
       <c r="Q115" s="69"/>
       <c r="R115" s="57"/>
     </row>
-    <row r="116" spans="1:18" ht="33.75">
+    <row r="116" spans="1:18" ht="33">
       <c r="A116" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -26892,7 +26858,7 @@
       <c r="Q116" s="69"/>
       <c r="R116" s="57"/>
     </row>
-    <row r="117" spans="1:18" ht="33.75">
+    <row r="117" spans="1:18" ht="33">
       <c r="A117" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -26927,7 +26893,7 @@
       <c r="Q117" s="69"/>
       <c r="R117" s="57"/>
     </row>
-    <row r="118" spans="1:18" ht="33.75">
+    <row r="118" spans="1:18" ht="33">
       <c r="A118" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -26964,7 +26930,7 @@
       <c r="Q118" s="69"/>
       <c r="R118" s="57"/>
     </row>
-    <row r="119" spans="1:18" ht="33.75">
+    <row r="119" spans="1:18" ht="33">
       <c r="A119" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -27007,7 +26973,7 @@
       <c r="Q119" s="69"/>
       <c r="R119" s="57"/>
     </row>
-    <row r="120" spans="1:18" ht="22.5">
+    <row r="120" spans="1:18" ht="22">
       <c r="A120" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -27048,7 +27014,7 @@
       <c r="Q120" s="69"/>
       <c r="R120" s="57"/>
     </row>
-    <row r="121" spans="1:18" ht="22.5">
+    <row r="121" spans="1:18" ht="22">
       <c r="A121" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -27083,7 +27049,7 @@
       <c r="Q121" s="69"/>
       <c r="R121" s="57"/>
     </row>
-    <row r="122" spans="1:18" ht="22.5">
+    <row r="122" spans="1:18" ht="22">
       <c r="A122" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -27124,7 +27090,7 @@
       <c r="Q122" s="69"/>
       <c r="R122" s="57"/>
     </row>
-    <row r="123" spans="1:18" ht="22.5">
+    <row r="123" spans="1:18" ht="22">
       <c r="A123" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -27165,7 +27131,7 @@
       <c r="Q123" s="69"/>
       <c r="R123" s="57"/>
     </row>
-    <row r="124" spans="1:18" ht="22.5">
+    <row r="124" spans="1:18" ht="22">
       <c r="A124" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -27200,7 +27166,7 @@
       <c r="Q124" s="69"/>
       <c r="R124" s="57"/>
     </row>
-    <row r="125" spans="1:18" ht="33.75">
+    <row r="125" spans="1:18" ht="33">
       <c r="A125" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -27243,7 +27209,7 @@
       <c r="Q125" s="69"/>
       <c r="R125" s="57"/>
     </row>
-    <row r="126" spans="1:18" ht="22.5">
+    <row r="126" spans="1:18" ht="22">
       <c r="A126" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -27280,7 +27246,7 @@
       <c r="Q126" s="69"/>
       <c r="R126" s="57"/>
     </row>
-    <row r="127" spans="1:18" ht="33.75">
+    <row r="127" spans="1:18" ht="33">
       <c r="A127" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -27315,7 +27281,7 @@
       <c r="Q127" s="69"/>
       <c r="R127" s="57"/>
     </row>
-    <row r="128" spans="1:18" ht="33.75">
+    <row r="128" spans="1:18" ht="33">
       <c r="A128" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -27350,7 +27316,7 @@
       <c r="Q128" s="69"/>
       <c r="R128" s="57"/>
     </row>
-    <row r="129" spans="1:18" ht="22.5">
+    <row r="129" spans="1:18" ht="22">
       <c r="A129" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -27387,7 +27353,7 @@
       <c r="Q129" s="69"/>
       <c r="R129" s="57"/>
     </row>
-    <row r="130" spans="1:18" ht="22.5">
+    <row r="130" spans="1:18" ht="22">
       <c r="A130" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -27422,7 +27388,7 @@
       <c r="Q130" s="69"/>
       <c r="R130" s="57"/>
     </row>
-    <row r="131" spans="1:18" ht="22.5">
+    <row r="131" spans="1:18" ht="22">
       <c r="A131" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -27457,7 +27423,7 @@
       <c r="Q131" s="69"/>
       <c r="R131" s="57"/>
     </row>
-    <row r="132" spans="1:18" ht="22.5">
+    <row r="132" spans="1:18" ht="22">
       <c r="A132" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -27492,7 +27458,7 @@
       <c r="Q132" s="69"/>
       <c r="R132" s="57"/>
     </row>
-    <row r="133" spans="1:18" ht="33.75">
+    <row r="133" spans="1:18" ht="33">
       <c r="A133" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -27527,7 +27493,7 @@
       <c r="Q133" s="69"/>
       <c r="R133" s="57"/>
     </row>
-    <row r="134" spans="1:18" ht="33.75">
+    <row r="134" spans="1:18" ht="33">
       <c r="A134" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -27564,7 +27530,7 @@
       <c r="Q134" s="69"/>
       <c r="R134" s="57"/>
     </row>
-    <row r="135" spans="1:18" ht="33.75">
+    <row r="135" spans="1:18" ht="33">
       <c r="A135" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -27599,7 +27565,7 @@
       <c r="Q135" s="69"/>
       <c r="R135" s="57"/>
     </row>
-    <row r="136" spans="1:18" ht="45">
+    <row r="136" spans="1:18" ht="44">
       <c r="A136" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -27634,7 +27600,7 @@
       <c r="Q136" s="69"/>
       <c r="R136" s="57"/>
     </row>
-    <row r="137" spans="1:18" ht="45">
+    <row r="137" spans="1:18" ht="44">
       <c r="A137" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -27669,7 +27635,7 @@
       <c r="Q137" s="69"/>
       <c r="R137" s="57"/>
     </row>
-    <row r="138" spans="1:18" ht="45">
+    <row r="138" spans="1:18" ht="44">
       <c r="A138" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -27704,7 +27670,7 @@
       <c r="Q138" s="69"/>
       <c r="R138" s="57"/>
     </row>
-    <row r="139" spans="1:18" ht="33.75">
+    <row r="139" spans="1:18" ht="33">
       <c r="A139" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -27741,7 +27707,7 @@
       <c r="Q139" s="69"/>
       <c r="R139" s="57"/>
     </row>
-    <row r="140" spans="1:18" ht="33.75">
+    <row r="140" spans="1:18" ht="33">
       <c r="A140" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -27780,7 +27746,7 @@
       <c r="Q140" s="69"/>
       <c r="R140" s="57"/>
     </row>
-    <row r="141" spans="1:18" ht="45">
+    <row r="141" spans="1:18" ht="44">
       <c r="A141" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -27821,7 +27787,7 @@
       <c r="Q141" s="69"/>
       <c r="R141" s="57"/>
     </row>
-    <row r="142" spans="1:18" ht="33.75">
+    <row r="142" spans="1:18" ht="33">
       <c r="A142" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -27858,7 +27824,7 @@
       <c r="Q142" s="69"/>
       <c r="R142" s="57"/>
     </row>
-    <row r="143" spans="1:18" ht="22.5">
+    <row r="143" spans="1:18" ht="22">
       <c r="A143" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -27893,7 +27859,7 @@
       <c r="Q143" s="69"/>
       <c r="R143" s="57"/>
     </row>
-    <row r="144" spans="1:18" ht="45">
+    <row r="144" spans="1:18" ht="44">
       <c r="A144" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -27928,7 +27894,7 @@
       <c r="Q144" s="69"/>
       <c r="R144" s="57"/>
     </row>
-    <row r="145" spans="1:18" ht="22.5">
+    <row r="145" spans="1:18" ht="22">
       <c r="A145" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -27971,7 +27937,7 @@
       <c r="Q145" s="69"/>
       <c r="R145" s="57"/>
     </row>
-    <row r="146" spans="1:18" ht="22.5">
+    <row r="146" spans="1:18" ht="22">
       <c r="A146" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -28008,7 +27974,7 @@
       <c r="Q146" s="69"/>
       <c r="R146" s="57"/>
     </row>
-    <row r="147" spans="1:18" ht="33.75">
+    <row r="147" spans="1:18" ht="33">
       <c r="A147" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -28043,7 +28009,7 @@
       <c r="Q147" s="69"/>
       <c r="R147" s="57"/>
     </row>
-    <row r="148" spans="1:18" ht="22.5">
+    <row r="148" spans="1:18" ht="22">
       <c r="A148" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -28078,7 +28044,7 @@
       <c r="Q148" s="69"/>
       <c r="R148" s="57"/>
     </row>
-    <row r="149" spans="1:18" ht="22.5">
+    <row r="149" spans="1:18" ht="22">
       <c r="A149" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -28115,7 +28081,7 @@
       <c r="Q149" s="69"/>
       <c r="R149" s="57"/>
     </row>
-    <row r="150" spans="1:18" ht="33.75">
+    <row r="150" spans="1:18" ht="33">
       <c r="A150" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -28150,7 +28116,7 @@
       <c r="Q150" s="69"/>
       <c r="R150" s="57"/>
     </row>
-    <row r="151" spans="1:18" ht="33.75">
+    <row r="151" spans="1:18" ht="33">
       <c r="A151" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -28189,7 +28155,7 @@
       <c r="Q151" s="69"/>
       <c r="R151" s="57"/>
     </row>
-    <row r="152" spans="1:18" ht="33.75">
+    <row r="152" spans="1:18" ht="33">
       <c r="A152" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -28230,7 +28196,7 @@
       <c r="Q152" s="69"/>
       <c r="R152" s="57"/>
     </row>
-    <row r="153" spans="1:18" ht="33.75">
+    <row r="153" spans="1:18" ht="33">
       <c r="A153" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -28267,7 +28233,7 @@
       <c r="Q153" s="69"/>
       <c r="R153" s="57"/>
     </row>
-    <row r="154" spans="1:18" ht="33.75">
+    <row r="154" spans="1:18" ht="33">
       <c r="A154" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -28304,7 +28270,7 @@
       <c r="Q154" s="69"/>
       <c r="R154" s="57"/>
     </row>
-    <row r="155" spans="1:18" ht="33.75">
+    <row r="155" spans="1:18" ht="33">
       <c r="A155" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -28341,7 +28307,7 @@
       <c r="Q155" s="69"/>
       <c r="R155" s="57"/>
     </row>
-    <row r="156" spans="1:18" ht="33.75">
+    <row r="156" spans="1:18" ht="33">
       <c r="A156" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -28378,7 +28344,7 @@
       <c r="Q156" s="69"/>
       <c r="R156" s="57"/>
     </row>
-    <row r="157" spans="1:18" ht="22.5">
+    <row r="157" spans="1:18" ht="22">
       <c r="A157" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -28415,7 +28381,7 @@
       <c r="Q157" s="69"/>
       <c r="R157" s="57"/>
     </row>
-    <row r="158" spans="1:18" ht="22.5">
+    <row r="158" spans="1:18" ht="22">
       <c r="A158" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -28450,7 +28416,7 @@
       <c r="Q158" s="69"/>
       <c r="R158" s="57"/>
     </row>
-    <row r="159" spans="1:18" ht="22.5">
+    <row r="159" spans="1:18" ht="22">
       <c r="A159" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -28485,7 +28451,7 @@
       <c r="Q159" s="69"/>
       <c r="R159" s="57"/>
     </row>
-    <row r="160" spans="1:18" ht="22.5">
+    <row r="160" spans="1:18" ht="22">
       <c r="A160" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -28520,7 +28486,7 @@
       <c r="Q160" s="69"/>
       <c r="R160" s="57"/>
     </row>
-    <row r="161" spans="1:18" ht="22.5">
+    <row r="161" spans="1:18" ht="22">
       <c r="A161" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -28555,7 +28521,7 @@
       <c r="Q161" s="69"/>
       <c r="R161" s="57"/>
     </row>
-    <row r="162" spans="1:18" ht="22.5">
+    <row r="162" spans="1:18" ht="22">
       <c r="A162" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -28590,7 +28556,7 @@
       <c r="Q162" s="69"/>
       <c r="R162" s="57"/>
     </row>
-    <row r="163" spans="1:18" ht="22.5">
+    <row r="163" spans="1:18" ht="22">
       <c r="A163" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -28629,7 +28595,7 @@
       <c r="Q163" s="69"/>
       <c r="R163" s="57"/>
     </row>
-    <row r="164" spans="1:18" ht="22.5">
+    <row r="164" spans="1:18" ht="22">
       <c r="A164" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -28664,7 +28630,7 @@
       <c r="Q164" s="69"/>
       <c r="R164" s="57"/>
     </row>
-    <row r="165" spans="1:18" ht="33.75">
+    <row r="165" spans="1:18" ht="33">
       <c r="A165" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -28701,7 +28667,7 @@
       <c r="Q165" s="69"/>
       <c r="R165" s="57"/>
     </row>
-    <row r="166" spans="1:18" ht="33.75">
+    <row r="166" spans="1:18" ht="33">
       <c r="A166" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -28736,7 +28702,7 @@
       <c r="Q166" s="69"/>
       <c r="R166" s="57"/>
     </row>
-    <row r="167" spans="1:18" ht="45">
+    <row r="167" spans="1:18" ht="44">
       <c r="A167" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -28771,7 +28737,7 @@
       <c r="Q167" s="69"/>
       <c r="R167" s="57"/>
     </row>
-    <row r="168" spans="1:18" ht="33.75">
+    <row r="168" spans="1:18" ht="33">
       <c r="A168" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -28806,7 +28772,7 @@
       <c r="Q168" s="69"/>
       <c r="R168" s="57"/>
     </row>
-    <row r="169" spans="1:18" ht="33.75">
+    <row r="169" spans="1:18" ht="33">
       <c r="A169" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -28841,7 +28807,7 @@
       <c r="Q169" s="69"/>
       <c r="R169" s="57"/>
     </row>
-    <row r="170" spans="1:18" ht="22.5">
+    <row r="170" spans="1:18" ht="22">
       <c r="A170" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -28876,7 +28842,7 @@
       <c r="Q170" s="69"/>
       <c r="R170" s="57"/>
     </row>
-    <row r="171" spans="1:18" ht="22.5">
+    <row r="171" spans="1:18" ht="22">
       <c r="A171" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -28911,7 +28877,7 @@
       <c r="Q171" s="69"/>
       <c r="R171" s="57"/>
     </row>
-    <row r="172" spans="1:18" ht="33.75">
+    <row r="172" spans="1:18" ht="33">
       <c r="A172" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -28946,7 +28912,7 @@
       <c r="Q172" s="69"/>
       <c r="R172" s="57"/>
     </row>
-    <row r="173" spans="1:18" ht="33.75">
+    <row r="173" spans="1:18" ht="33">
       <c r="A173" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -28981,7 +28947,7 @@
       <c r="Q173" s="69"/>
       <c r="R173" s="57"/>
     </row>
-    <row r="174" spans="1:18" ht="45">
+    <row r="174" spans="1:18" ht="44">
       <c r="A174" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -29016,7 +28982,7 @@
       <c r="Q174" s="69"/>
       <c r="R174" s="57"/>
     </row>
-    <row r="175" spans="1:18" ht="33.75">
+    <row r="175" spans="1:18" ht="33">
       <c r="A175" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -29051,7 +29017,7 @@
       <c r="Q175" s="69"/>
       <c r="R175" s="57"/>
     </row>
-    <row r="176" spans="1:18" ht="22.5">
+    <row r="176" spans="1:18" ht="22">
       <c r="A176" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -29088,7 +29054,7 @@
       <c r="Q176" s="69"/>
       <c r="R176" s="57"/>
     </row>
-    <row r="177" spans="1:18" ht="22.5">
+    <row r="177" spans="1:18" ht="22">
       <c r="A177" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -29123,7 +29089,7 @@
       <c r="Q177" s="69"/>
       <c r="R177" s="57"/>
     </row>
-    <row r="178" spans="1:18" ht="33.75">
+    <row r="178" spans="1:18" ht="33">
       <c r="A178" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -29158,7 +29124,7 @@
       <c r="Q178" s="69"/>
       <c r="R178" s="57"/>
     </row>
-    <row r="179" spans="1:18" ht="22.5">
+    <row r="179" spans="1:18" ht="22">
       <c r="A179" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -29193,7 +29159,7 @@
       <c r="Q179" s="69"/>
       <c r="R179" s="57"/>
     </row>
-    <row r="180" spans="1:18" ht="22.5">
+    <row r="180" spans="1:18" ht="22">
       <c r="A180" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -29228,7 +29194,7 @@
       <c r="Q180" s="69"/>
       <c r="R180" s="57"/>
     </row>
-    <row r="181" spans="1:18" ht="33.75">
+    <row r="181" spans="1:18" ht="33">
       <c r="A181" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -29263,7 +29229,7 @@
       <c r="Q181" s="69"/>
       <c r="R181" s="57"/>
     </row>
-    <row r="182" spans="1:18" ht="22.5">
+    <row r="182" spans="1:18" ht="22">
       <c r="A182" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -29298,7 +29264,7 @@
       <c r="Q182" s="69"/>
       <c r="R182" s="57"/>
     </row>
-    <row r="183" spans="1:18" ht="22.5">
+    <row r="183" spans="1:18" ht="22">
       <c r="A183" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -29335,7 +29301,7 @@
       <c r="Q183" s="69"/>
       <c r="R183" s="57"/>
     </row>
-    <row r="184" spans="1:18" ht="33.75">
+    <row r="184" spans="1:18" ht="33">
       <c r="A184" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -29370,7 +29336,7 @@
       <c r="Q184" s="69"/>
       <c r="R184" s="57"/>
     </row>
-    <row r="185" spans="1:18" ht="33.75">
+    <row r="185" spans="1:18" ht="33">
       <c r="A185" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -29405,7 +29371,7 @@
       <c r="Q185" s="69"/>
       <c r="R185" s="57"/>
     </row>
-    <row r="186" spans="1:18" ht="45">
+    <row r="186" spans="1:18" ht="44">
       <c r="A186" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -29440,7 +29406,7 @@
       <c r="Q186" s="69"/>
       <c r="R186" s="57"/>
     </row>
-    <row r="187" spans="1:18" ht="45">
+    <row r="187" spans="1:18" ht="44">
       <c r="A187" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -29475,7 +29441,7 @@
       <c r="Q187" s="69"/>
       <c r="R187" s="57"/>
     </row>
-    <row r="188" spans="1:18" ht="33.75">
+    <row r="188" spans="1:18" ht="33">
       <c r="A188" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -29510,7 +29476,7 @@
       <c r="Q188" s="69"/>
       <c r="R188" s="57"/>
     </row>
-    <row r="189" spans="1:18" ht="45">
+    <row r="189" spans="1:18" ht="44">
       <c r="A189" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -29545,7 +29511,7 @@
       <c r="Q189" s="69"/>
       <c r="R189" s="57"/>
     </row>
-    <row r="190" spans="1:18" ht="45">
+    <row r="190" spans="1:18" ht="44">
       <c r="A190" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -29580,7 +29546,7 @@
       <c r="Q190" s="69"/>
       <c r="R190" s="57"/>
     </row>
-    <row r="191" spans="1:18" ht="22.5">
+    <row r="191" spans="1:18" ht="22">
       <c r="A191" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -29615,7 +29581,7 @@
       <c r="Q191" s="69"/>
       <c r="R191" s="57"/>
     </row>
-    <row r="192" spans="1:18" ht="33.75">
+    <row r="192" spans="1:18" ht="33">
       <c r="A192" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -29652,7 +29618,7 @@
       <c r="Q192" s="69"/>
       <c r="R192" s="57"/>
     </row>
-    <row r="193" spans="1:18" ht="22.5">
+    <row r="193" spans="1:18" ht="22">
       <c r="A193" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -29689,7 +29655,7 @@
       <c r="Q193" s="69"/>
       <c r="R193" s="57"/>
     </row>
-    <row r="194" spans="1:18" ht="22.5">
+    <row r="194" spans="1:18" ht="22">
       <c r="A194" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -29732,7 +29698,7 @@
       <c r="Q194" s="69"/>
       <c r="R194" s="57"/>
     </row>
-    <row r="195" spans="1:18" ht="22.5">
+    <row r="195" spans="1:18" ht="22">
       <c r="A195" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -29771,7 +29737,7 @@
       <c r="Q195" s="69"/>
       <c r="R195" s="57"/>
     </row>
-    <row r="196" spans="1:18" ht="22.5">
+    <row r="196" spans="1:18" ht="22">
       <c r="A196" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -29810,7 +29776,7 @@
       <c r="Q196" s="69"/>
       <c r="R196" s="57"/>
     </row>
-    <row r="197" spans="1:18" ht="22.5">
+    <row r="197" spans="1:18" ht="22">
       <c r="A197" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -29853,7 +29819,7 @@
       <c r="Q197" s="88"/>
       <c r="R197" s="42"/>
     </row>
-    <row r="198" spans="1:18" ht="22.5">
+    <row r="198" spans="1:18" ht="22">
       <c r="A198" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -29890,7 +29856,7 @@
       <c r="Q198" s="88"/>
       <c r="R198" s="42"/>
     </row>
-    <row r="199" spans="1:18" ht="22.5">
+    <row r="199" spans="1:18" ht="22">
       <c r="A199" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -29925,7 +29891,7 @@
       <c r="Q199" s="88"/>
       <c r="R199" s="42"/>
     </row>
-    <row r="200" spans="1:18" ht="33.75">
+    <row r="200" spans="1:18" ht="33">
       <c r="A200" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -29962,7 +29928,7 @@
       <c r="Q200" s="88"/>
       <c r="R200" s="42"/>
     </row>
-    <row r="201" spans="1:18" ht="33.75">
+    <row r="201" spans="1:18" ht="33">
       <c r="A201" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -29997,7 +29963,7 @@
       <c r="Q201" s="88"/>
       <c r="R201" s="42"/>
     </row>
-    <row r="202" spans="1:18" ht="33.75">
+    <row r="202" spans="1:18" ht="33">
       <c r="A202" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -30036,7 +30002,7 @@
       <c r="Q202" s="88"/>
       <c r="R202" s="42"/>
     </row>
-    <row r="203" spans="1:18" ht="22.5">
+    <row r="203" spans="1:18" ht="22">
       <c r="A203" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -30077,7 +30043,7 @@
       <c r="Q203" s="88"/>
       <c r="R203" s="42"/>
     </row>
-    <row r="204" spans="1:18" ht="22.5">
+    <row r="204" spans="1:18" ht="22">
       <c r="A204" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -30112,7 +30078,7 @@
       <c r="Q204" s="88"/>
       <c r="R204" s="42"/>
     </row>
-    <row r="205" spans="1:18" ht="22.5">
+    <row r="205" spans="1:18" ht="22">
       <c r="A205" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -30147,7 +30113,7 @@
       <c r="Q205" s="88"/>
       <c r="R205" s="42"/>
     </row>
-    <row r="206" spans="1:18" ht="22.5">
+    <row r="206" spans="1:18" ht="22">
       <c r="A206" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -30182,7 +30148,7 @@
       <c r="Q206" s="88"/>
       <c r="R206" s="42"/>
     </row>
-    <row r="207" spans="1:18" ht="22.5">
+    <row r="207" spans="1:18" ht="22">
       <c r="A207" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -30217,7 +30183,7 @@
       <c r="Q207" s="88"/>
       <c r="R207" s="42"/>
     </row>
-    <row r="208" spans="1:18" ht="22.5">
+    <row r="208" spans="1:18" ht="22">
       <c r="A208" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -30252,7 +30218,7 @@
       <c r="Q208" s="88"/>
       <c r="R208" s="42"/>
     </row>
-    <row r="209" spans="1:18" ht="22.5">
+    <row r="209" spans="1:18" ht="22">
       <c r="A209" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -30287,7 +30253,7 @@
       <c r="Q209" s="88"/>
       <c r="R209" s="42"/>
     </row>
-    <row r="210" spans="1:18" ht="22.5">
+    <row r="210" spans="1:18" ht="22">
       <c r="A210" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -30324,7 +30290,7 @@
       <c r="Q210" s="88"/>
       <c r="R210" s="42"/>
     </row>
-    <row r="211" spans="1:18" ht="22.5">
+    <row r="211" spans="1:18" ht="22">
       <c r="A211" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -30363,7 +30329,7 @@
       <c r="Q211" s="88"/>
       <c r="R211" s="42"/>
     </row>
-    <row r="212" spans="1:18" ht="22.5">
+    <row r="212" spans="1:18" ht="22">
       <c r="A212" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -30398,7 +30364,7 @@
       <c r="Q212" s="88"/>
       <c r="R212" s="42"/>
     </row>
-    <row r="213" spans="1:18" ht="22.5">
+    <row r="213" spans="1:18" ht="22">
       <c r="A213" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -30433,7 +30399,7 @@
       <c r="Q213" s="88"/>
       <c r="R213" s="42"/>
     </row>
-    <row r="214" spans="1:18" ht="22.5">
+    <row r="214" spans="1:18" ht="22">
       <c r="A214" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -30468,7 +30434,7 @@
       <c r="Q214" s="88"/>
       <c r="R214" s="42"/>
     </row>
-    <row r="215" spans="1:18" ht="33.75">
+    <row r="215" spans="1:18" ht="33">
       <c r="A215" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -30503,7 +30469,7 @@
       <c r="Q215" s="88"/>
       <c r="R215" s="42"/>
     </row>
-    <row r="216" spans="1:18" ht="45">
+    <row r="216" spans="1:18" ht="44">
       <c r="A216" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -30538,7 +30504,7 @@
       <c r="Q216" s="88"/>
       <c r="R216" s="42"/>
     </row>
-    <row r="217" spans="1:18" ht="45">
+    <row r="217" spans="1:18" ht="44">
       <c r="A217" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -30573,7 +30539,7 @@
       <c r="Q217" s="88"/>
       <c r="R217" s="42"/>
     </row>
-    <row r="218" spans="1:18" ht="45">
+    <row r="218" spans="1:18" ht="44">
       <c r="A218" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -30608,7 +30574,7 @@
       <c r="Q218" s="88"/>
       <c r="R218" s="42"/>
     </row>
-    <row r="219" spans="1:18" ht="33.75">
+    <row r="219" spans="1:18" ht="33">
       <c r="A219" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -30643,7 +30609,7 @@
       <c r="Q219" s="88"/>
       <c r="R219" s="42"/>
     </row>
-    <row r="220" spans="1:18" ht="22.5">
+    <row r="220" spans="1:18" ht="22">
       <c r="A220" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -30678,7 +30644,7 @@
       <c r="Q220" s="88"/>
       <c r="R220" s="42"/>
     </row>
-    <row r="221" spans="1:18" ht="22.5">
+    <row r="221" spans="1:18" ht="22">
       <c r="A221" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -30713,7 +30679,7 @@
       <c r="Q221" s="88"/>
       <c r="R221" s="42"/>
     </row>
-    <row r="222" spans="1:18" ht="33.75">
+    <row r="222" spans="1:18" ht="33">
       <c r="A222" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -30748,7 +30714,7 @@
       <c r="Q222" s="88"/>
       <c r="R222" s="42"/>
     </row>
-    <row r="223" spans="1:18" ht="22.5">
+    <row r="223" spans="1:18" ht="22">
       <c r="A223" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -30783,7 +30749,7 @@
       <c r="Q223" s="88"/>
       <c r="R223" s="42"/>
     </row>
-    <row r="224" spans="1:18" ht="22.5">
+    <row r="224" spans="1:18" ht="22">
       <c r="A224" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -30822,7 +30788,7 @@
       <c r="Q224" s="88"/>
       <c r="R224" s="42"/>
     </row>
-    <row r="225" spans="1:18" ht="22.5">
+    <row r="225" spans="1:18" ht="22">
       <c r="A225" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -30857,7 +30823,7 @@
       <c r="Q225" s="88"/>
       <c r="R225" s="42"/>
     </row>
-    <row r="226" spans="1:18" ht="22.5">
+    <row r="226" spans="1:18" ht="22">
       <c r="A226" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -30892,7 +30858,7 @@
       <c r="Q226" s="88"/>
       <c r="R226" s="42"/>
     </row>
-    <row r="227" spans="1:18" ht="22.5">
+    <row r="227" spans="1:18" ht="22">
       <c r="A227" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -30927,7 +30893,7 @@
       <c r="Q227" s="88"/>
       <c r="R227" s="42"/>
     </row>
-    <row r="228" spans="1:18" ht="22.5">
+    <row r="228" spans="1:18" ht="22">
       <c r="A228" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -30962,7 +30928,7 @@
       <c r="Q228" s="88"/>
       <c r="R228" s="42"/>
     </row>
-    <row r="229" spans="1:18" ht="45">
+    <row r="229" spans="1:18" ht="44">
       <c r="A229" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -30997,7 +30963,7 @@
       <c r="Q229" s="88"/>
       <c r="R229" s="42"/>
     </row>
-    <row r="230" spans="1:18" ht="33.75">
+    <row r="230" spans="1:18" ht="33">
       <c r="A230" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -31032,7 +30998,7 @@
       <c r="Q230" s="88"/>
       <c r="R230" s="42"/>
     </row>
-    <row r="231" spans="1:18" ht="45">
+    <row r="231" spans="1:18" ht="44">
       <c r="A231" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -31067,7 +31033,7 @@
       <c r="Q231" s="88"/>
       <c r="R231" s="42"/>
     </row>
-    <row r="232" spans="1:18" ht="45">
+    <row r="232" spans="1:18" ht="44">
       <c r="A232" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -31102,7 +31068,7 @@
       <c r="Q232" s="88"/>
       <c r="R232" s="42"/>
     </row>
-    <row r="233" spans="1:18" ht="45">
+    <row r="233" spans="1:18" ht="44">
       <c r="A233" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -31137,7 +31103,7 @@
       <c r="Q233" s="88"/>
       <c r="R233" s="42"/>
     </row>
-    <row r="234" spans="1:18" ht="33.75">
+    <row r="234" spans="1:18" ht="33">
       <c r="A234" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -31172,7 +31138,7 @@
       <c r="Q234" s="88"/>
       <c r="R234" s="42"/>
     </row>
-    <row r="235" spans="1:18" ht="22.5">
+    <row r="235" spans="1:18" ht="22">
       <c r="A235" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -31207,7 +31173,7 @@
       <c r="Q235" s="88"/>
       <c r="R235" s="42"/>
     </row>
-    <row r="236" spans="1:18" ht="22.5">
+    <row r="236" spans="1:18" ht="22">
       <c r="A236" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -31242,7 +31208,7 @@
       <c r="Q236" s="88"/>
       <c r="R236" s="42"/>
     </row>
-    <row r="237" spans="1:18" ht="33.75">
+    <row r="237" spans="1:18" ht="33">
       <c r="A237" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -31277,7 +31243,7 @@
       <c r="Q237" s="88"/>
       <c r="R237" s="42"/>
     </row>
-    <row r="238" spans="1:18" ht="22.5">
+    <row r="238" spans="1:18" ht="22">
       <c r="A238" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -31312,7 +31278,7 @@
       <c r="Q238" s="88"/>
       <c r="R238" s="42"/>
     </row>
-    <row r="239" spans="1:18" ht="45">
+    <row r="239" spans="1:18" ht="44">
       <c r="A239" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -31349,7 +31315,7 @@
       <c r="Q239" s="88"/>
       <c r="R239" s="42"/>
     </row>
-    <row r="240" spans="1:18" ht="45">
+    <row r="240" spans="1:18" ht="44">
       <c r="A240" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -31384,7 +31350,7 @@
       <c r="Q240" s="88"/>
       <c r="R240" s="42"/>
     </row>
-    <row r="241" spans="1:18" ht="45">
+    <row r="241" spans="1:18" ht="44">
       <c r="A241" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -31419,7 +31385,7 @@
       <c r="Q241" s="88"/>
       <c r="R241" s="42"/>
     </row>
-    <row r="242" spans="1:18" ht="45">
+    <row r="242" spans="1:18" ht="44">
       <c r="A242" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -31456,7 +31422,7 @@
       <c r="Q242" s="88"/>
       <c r="R242" s="42"/>
     </row>
-    <row r="243" spans="1:18" ht="22.5">
+    <row r="243" spans="1:18" ht="22">
       <c r="A243" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -31493,7 +31459,7 @@
       <c r="Q243" s="88"/>
       <c r="R243" s="42"/>
     </row>
-    <row r="244" spans="1:18" ht="22.5">
+    <row r="244" spans="1:18" ht="22">
       <c r="A244" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -31536,7 +31502,7 @@
       <c r="Q244" s="69"/>
       <c r="R244" s="57"/>
     </row>
-    <row r="245" spans="1:18" ht="22.5">
+    <row r="245" spans="1:18" ht="22">
       <c r="A245" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -31573,7 +31539,7 @@
       <c r="Q245" s="69"/>
       <c r="R245" s="57"/>
     </row>
-    <row r="246" spans="1:18" ht="22.5">
+    <row r="246" spans="1:18" ht="22">
       <c r="A246" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -31608,7 +31574,7 @@
       <c r="Q246" s="69"/>
       <c r="R246" s="57"/>
     </row>
-    <row r="247" spans="1:18" ht="22.5">
+    <row r="247" spans="1:18" ht="22">
       <c r="A247" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -31643,7 +31609,7 @@
       <c r="Q247" s="69"/>
       <c r="R247" s="57"/>
     </row>
-    <row r="248" spans="1:18" ht="22.5">
+    <row r="248" spans="1:18" ht="22">
       <c r="A248" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -31678,7 +31644,7 @@
       <c r="Q248" s="69"/>
       <c r="R248" s="57"/>
     </row>
-    <row r="249" spans="1:18" ht="33.75">
+    <row r="249" spans="1:18" ht="33">
       <c r="A249" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -31713,7 +31679,7 @@
       <c r="Q249" s="69"/>
       <c r="R249" s="57"/>
     </row>
-    <row r="250" spans="1:18" ht="33.75">
+    <row r="250" spans="1:18" ht="33">
       <c r="A250" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -31750,7 +31716,7 @@
       <c r="Q250" s="69"/>
       <c r="R250" s="57"/>
     </row>
-    <row r="251" spans="1:18" ht="33.75">
+    <row r="251" spans="1:18" ht="33">
       <c r="A251" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -31785,7 +31751,7 @@
       <c r="Q251" s="69"/>
       <c r="R251" s="57"/>
     </row>
-    <row r="252" spans="1:18" ht="45">
+    <row r="252" spans="1:18" ht="44">
       <c r="A252" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -31820,7 +31786,7 @@
       <c r="Q252" s="69"/>
       <c r="R252" s="57"/>
     </row>
-    <row r="253" spans="1:18" ht="45">
+    <row r="253" spans="1:18" ht="44">
       <c r="A253" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -31855,7 +31821,7 @@
       <c r="Q253" s="69"/>
       <c r="R253" s="57"/>
     </row>
-    <row r="254" spans="1:18" ht="33.75">
+    <row r="254" spans="1:18" ht="33">
       <c r="A254" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -31890,7 +31856,7 @@
       <c r="Q254" s="69"/>
       <c r="R254" s="57"/>
     </row>
-    <row r="255" spans="1:18" ht="33.75">
+    <row r="255" spans="1:18" ht="33">
       <c r="A255" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -31927,7 +31893,7 @@
       <c r="Q255" s="69"/>
       <c r="R255" s="57"/>
     </row>
-    <row r="256" spans="1:18" ht="45">
+    <row r="256" spans="1:18" ht="44">
       <c r="A256" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -31968,7 +31934,7 @@
       <c r="Q256" s="69"/>
       <c r="R256" s="57"/>
     </row>
-    <row r="257" spans="1:18" ht="33.75">
+    <row r="257" spans="1:18" ht="33">
       <c r="A257" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -32011,7 +31977,7 @@
       <c r="Q257" s="69"/>
       <c r="R257" s="57"/>
     </row>
-    <row r="258" spans="1:18" ht="33.75">
+    <row r="258" spans="1:18" ht="33">
       <c r="A258" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -32046,7 +32012,7 @@
       <c r="Q258" s="69"/>
       <c r="R258" s="57"/>
     </row>
-    <row r="259" spans="1:18" ht="33.75">
+    <row r="259" spans="1:18" ht="33">
       <c r="A259" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -32085,7 +32051,7 @@
       <c r="Q259" s="69"/>
       <c r="R259" s="57"/>
     </row>
-    <row r="260" spans="1:18" ht="33.75">
+    <row r="260" spans="1:18" ht="33">
       <c r="A260" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -32120,7 +32086,7 @@
       <c r="Q260" s="69"/>
       <c r="R260" s="57"/>
     </row>
-    <row r="261" spans="1:18" ht="33.75">
+    <row r="261" spans="1:18" ht="33">
       <c r="A261" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -32161,7 +32127,7 @@
       <c r="Q261" s="69"/>
       <c r="R261" s="57"/>
     </row>
-    <row r="262" spans="1:18" ht="33.75">
+    <row r="262" spans="1:18" ht="33">
       <c r="A262" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -32198,7 +32164,7 @@
       <c r="Q262" s="69"/>
       <c r="R262" s="57"/>
     </row>
-    <row r="263" spans="1:18" ht="33.75">
+    <row r="263" spans="1:18" ht="33">
       <c r="A263" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -32235,7 +32201,7 @@
       <c r="Q263" s="69"/>
       <c r="R263" s="57"/>
     </row>
-    <row r="264" spans="1:18" ht="33.75">
+    <row r="264" spans="1:18" ht="33">
       <c r="A264" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -32272,7 +32238,7 @@
       <c r="Q264" s="69"/>
       <c r="R264" s="57"/>
     </row>
-    <row r="265" spans="1:18" ht="22.5">
+    <row r="265" spans="1:18" ht="22">
       <c r="A265" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -32311,7 +32277,7 @@
       <c r="Q265" s="69"/>
       <c r="R265" s="57"/>
     </row>
-    <row r="266" spans="1:18" ht="22.5">
+    <row r="266" spans="1:18" ht="22">
       <c r="A266" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -32346,7 +32312,7 @@
       <c r="Q266" s="69"/>
       <c r="R266" s="57"/>
     </row>
-    <row r="267" spans="1:18" ht="33.75">
+    <row r="267" spans="1:18" ht="33">
       <c r="A267" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -32383,7 +32349,7 @@
       <c r="Q267" s="69"/>
       <c r="R267" s="57"/>
     </row>
-    <row r="268" spans="1:18" ht="33.75">
+    <row r="268" spans="1:18" ht="33">
       <c r="A268" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -32418,7 +32384,7 @@
       <c r="Q268" s="69"/>
       <c r="R268" s="57"/>
     </row>
-    <row r="269" spans="1:18" ht="45">
+    <row r="269" spans="1:18" ht="44">
       <c r="A269" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -32453,7 +32419,7 @@
       <c r="Q269" s="69"/>
       <c r="R269" s="57"/>
     </row>
-    <row r="270" spans="1:18" ht="33.75">
+    <row r="270" spans="1:18" ht="33">
       <c r="A270" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -32488,7 +32454,7 @@
       <c r="Q270" s="69"/>
       <c r="R270" s="57"/>
     </row>
-    <row r="271" spans="1:18" ht="33.75">
+    <row r="271" spans="1:18" ht="33">
       <c r="A271" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -32523,7 +32489,7 @@
       <c r="Q271" s="69"/>
       <c r="R271" s="57"/>
     </row>
-    <row r="272" spans="1:18" ht="22.5">
+    <row r="272" spans="1:18" ht="22">
       <c r="A272" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -32558,7 +32524,7 @@
       <c r="Q272" s="69"/>
       <c r="R272" s="57"/>
     </row>
-    <row r="273" spans="1:18" ht="22.5">
+    <row r="273" spans="1:18" ht="22">
       <c r="A273" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -32593,7 +32559,7 @@
       <c r="Q273" s="69"/>
       <c r="R273" s="57"/>
     </row>
-    <row r="274" spans="1:18" ht="33.75">
+    <row r="274" spans="1:18" ht="33">
       <c r="A274" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -32628,7 +32594,7 @@
       <c r="Q274" s="69"/>
       <c r="R274" s="57"/>
     </row>
-    <row r="275" spans="1:18" ht="33.75">
+    <row r="275" spans="1:18" ht="33">
       <c r="A275" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -32663,7 +32629,7 @@
       <c r="Q275" s="69"/>
       <c r="R275" s="57"/>
     </row>
-    <row r="276" spans="1:18" ht="45">
+    <row r="276" spans="1:18" ht="44">
       <c r="A276" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -32698,7 +32664,7 @@
       <c r="Q276" s="69"/>
       <c r="R276" s="57"/>
     </row>
-    <row r="277" spans="1:18" ht="33.75">
+    <row r="277" spans="1:18" ht="33">
       <c r="A277" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -32733,7 +32699,7 @@
       <c r="Q277" s="69"/>
       <c r="R277" s="57"/>
     </row>
-    <row r="278" spans="1:18" ht="22.5">
+    <row r="278" spans="1:18" ht="22">
       <c r="A278" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -32770,7 +32736,7 @@
       <c r="Q278" s="69"/>
       <c r="R278" s="57"/>
     </row>
-    <row r="279" spans="1:18" ht="22.5">
+    <row r="279" spans="1:18" ht="22">
       <c r="A279" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -32805,7 +32771,7 @@
       <c r="Q279" s="69"/>
       <c r="R279" s="57"/>
     </row>
-    <row r="280" spans="1:18" ht="33.75">
+    <row r="280" spans="1:18" ht="33">
       <c r="A280" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -32840,7 +32806,7 @@
       <c r="Q280" s="69"/>
       <c r="R280" s="57"/>
     </row>
-    <row r="281" spans="1:18" ht="22.5">
+    <row r="281" spans="1:18" ht="22">
       <c r="A281" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -32875,7 +32841,7 @@
       <c r="Q281" s="69"/>
       <c r="R281" s="57"/>
     </row>
-    <row r="282" spans="1:18" ht="22.5">
+    <row r="282" spans="1:18" ht="22">
       <c r="A282" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -32910,7 +32876,7 @@
       <c r="Q282" s="69"/>
       <c r="R282" s="57"/>
     </row>
-    <row r="283" spans="1:18" ht="33.75">
+    <row r="283" spans="1:18" ht="33">
       <c r="A283" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -32945,7 +32911,7 @@
       <c r="Q283" s="69"/>
       <c r="R283" s="57"/>
     </row>
-    <row r="284" spans="1:18" ht="22.5">
+    <row r="284" spans="1:18" ht="22">
       <c r="A284" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -32982,7 +32948,7 @@
       <c r="Q284" s="69"/>
       <c r="R284" s="57"/>
     </row>
-    <row r="285" spans="1:18" ht="33.75">
+    <row r="285" spans="1:18" ht="33">
       <c r="A285" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -33017,7 +32983,7 @@
       <c r="Q285" s="69"/>
       <c r="R285" s="57"/>
     </row>
-    <row r="286" spans="1:18" ht="45">
+    <row r="286" spans="1:18" ht="44">
       <c r="A286" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -33052,7 +33018,7 @@
       <c r="Q286" s="69"/>
       <c r="R286" s="57"/>
     </row>
-    <row r="287" spans="1:18" ht="45">
+    <row r="287" spans="1:18" ht="44">
       <c r="A287" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -33087,7 +33053,7 @@
       <c r="Q287" s="69"/>
       <c r="R287" s="57"/>
     </row>
-    <row r="288" spans="1:18" ht="33.75">
+    <row r="288" spans="1:18" ht="33">
       <c r="A288" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -33122,7 +33088,7 @@
       <c r="Q288" s="69"/>
       <c r="R288" s="57"/>
     </row>
-    <row r="289" spans="1:18" ht="45">
+    <row r="289" spans="1:18" ht="44">
       <c r="A289" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -33157,7 +33123,7 @@
       <c r="Q289" s="69"/>
       <c r="R289" s="57"/>
     </row>
-    <row r="290" spans="1:18" ht="45">
+    <row r="290" spans="1:18" ht="44">
       <c r="A290" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -33192,7 +33158,7 @@
       <c r="Q290" s="69"/>
       <c r="R290" s="57"/>
     </row>
-    <row r="291" spans="1:18" ht="22.5">
+    <row r="291" spans="1:18" ht="22">
       <c r="A291" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -33227,7 +33193,7 @@
       <c r="Q291" s="69"/>
       <c r="R291" s="57"/>
     </row>
-    <row r="292" spans="1:18" ht="22.5">
+    <row r="292" spans="1:18" ht="22">
       <c r="A292" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -33264,7 +33230,7 @@
       <c r="Q292" s="69"/>
       <c r="R292" s="57"/>
     </row>
-    <row r="293" spans="1:18" ht="22.5">
+    <row r="293" spans="1:18" ht="22">
       <c r="A293" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -33307,7 +33273,7 @@
       <c r="Q293" s="69"/>
       <c r="R293" s="57"/>
     </row>
-    <row r="294" spans="1:18" ht="22.5">
+    <row r="294" spans="1:18" ht="22">
       <c r="A294" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -33342,7 +33308,7 @@
       <c r="Q294" s="69"/>
       <c r="R294" s="57"/>
     </row>
-    <row r="295" spans="1:18" ht="22.5">
+    <row r="295" spans="1:18" ht="22">
       <c r="A295" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -33377,7 +33343,7 @@
       <c r="Q295" s="69"/>
       <c r="R295" s="57"/>
     </row>
-    <row r="296" spans="1:18" ht="22.5">
+    <row r="296" spans="1:18" ht="22">
       <c r="A296" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -33412,7 +33378,7 @@
       <c r="Q296" s="69"/>
       <c r="R296" s="57"/>
     </row>
-    <row r="297" spans="1:18" ht="22.5">
+    <row r="297" spans="1:18" ht="22">
       <c r="A297" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
@@ -33453,7 +33419,7 @@
       <c r="Q297" s="69"/>
       <c r="R297" s="57"/>
     </row>
-    <row r="298" spans="1:18" ht="22.5">
+    <row r="298" spans="1:18" ht="22">
       <c r="A298" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E298),
@@ -33490,7 +33456,7 @@
       <c r="Q298" s="69"/>
       <c r="R298" s="57"/>
     </row>
-    <row r="299" spans="1:18" ht="22.5">
+    <row r="299" spans="1:18" ht="22">
       <c r="A299" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
@@ -33527,7 +33493,7 @@
       <c r="Q299" s="69"/>
       <c r="R299" s="57"/>
     </row>
-    <row r="300" spans="1:18" ht="22.5">
+    <row r="300" spans="1:18" ht="22">
       <c r="A300" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
@@ -33564,7 +33530,7 @@
       <c r="Q300" s="69"/>
       <c r="R300" s="57"/>
     </row>
-    <row r="301" spans="1:18" ht="22.5">
+    <row r="301" spans="1:18" ht="22">
       <c r="A301" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -33603,7 +33569,7 @@
       <c r="Q301" s="69"/>
       <c r="R301" s="57"/>
     </row>
-    <row r="302" spans="1:18" ht="22.5">
+    <row r="302" spans="1:18" ht="22">
       <c r="A302" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
@@ -33638,7 +33604,7 @@
       <c r="Q302" s="69"/>
       <c r="R302" s="57"/>
     </row>
-    <row r="303" spans="1:18" ht="33.75">
+    <row r="303" spans="1:18" ht="33">
       <c r="A303" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
@@ -33673,7 +33639,7 @@
       <c r="Q303" s="69"/>
       <c r="R303" s="57"/>
     </row>
-    <row r="304" spans="1:18" ht="33.75">
+    <row r="304" spans="1:18" ht="33">
       <c r="A304" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
@@ -33708,7 +33674,7 @@
       <c r="Q304" s="69"/>
       <c r="R304" s="57"/>
     </row>
-    <row r="305" spans="1:18" ht="45">
+    <row r="305" spans="1:18" ht="44">
       <c r="A305" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -33743,7 +33709,7 @@
       <c r="Q305" s="69"/>
       <c r="R305" s="57"/>
     </row>
-    <row r="306" spans="1:18" ht="33.75">
+    <row r="306" spans="1:18" ht="33">
       <c r="A306" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
@@ -33778,7 +33744,7 @@
       <c r="Q306" s="69"/>
       <c r="R306" s="57"/>
     </row>
-    <row r="307" spans="1:18" ht="33.75">
+    <row r="307" spans="1:18" ht="33">
       <c r="A307" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
@@ -33813,7 +33779,7 @@
       <c r="Q307" s="69"/>
       <c r="R307" s="57"/>
     </row>
-    <row r="308" spans="1:18" ht="22.5">
+    <row r="308" spans="1:18" ht="22">
       <c r="A308" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E308),
@@ -33848,7 +33814,7 @@
       <c r="Q308" s="69"/>
       <c r="R308" s="57"/>
     </row>
-    <row r="309" spans="1:18" ht="22.5">
+    <row r="309" spans="1:18" ht="22">
       <c r="A309" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -33883,7 +33849,7 @@
       <c r="Q309" s="142"/>
       <c r="R309" s="140"/>
     </row>
-    <row r="310" spans="1:18" ht="45">
+    <row r="310" spans="1:18" ht="44">
       <c r="A310" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -33940,7 +33906,7 @@
       <c r="Q310" s="54"/>
       <c r="R310" s="54"/>
     </row>
-    <row r="311" spans="1:18" ht="56.25">
+    <row r="311" spans="1:18" ht="55">
       <c r="A311" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -33993,7 +33959,7 @@
       <c r="Q311" s="54"/>
       <c r="R311" s="54"/>
     </row>
-    <row r="312" spans="1:18" ht="56.25">
+    <row r="312" spans="1:18" ht="55">
       <c r="A312" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -34040,7 +34006,7 @@
       <c r="Q312" s="54"/>
       <c r="R312" s="54"/>
     </row>
-    <row r="313" spans="1:18" ht="67.5">
+    <row r="313" spans="1:18" ht="66">
       <c r="A313" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -34089,7 +34055,7 @@
       <c r="Q313" s="54"/>
       <c r="R313" s="54"/>
     </row>
-    <row r="314" spans="1:18" ht="101.25">
+    <row r="314" spans="1:18" ht="99">
       <c r="A314" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
@@ -34142,7 +34108,7 @@
       <c r="Q314" s="54"/>
       <c r="R314" s="54"/>
     </row>
-    <row r="315" spans="1:18" ht="78.75">
+    <row r="315" spans="1:18" ht="77">
       <c r="A315" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
@@ -34191,7 +34157,7 @@
       <c r="Q315" s="54"/>
       <c r="R315" s="54"/>
     </row>
-    <row r="316" spans="1:18" ht="45">
+    <row r="316" spans="1:18" ht="44">
       <c r="A316" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -34226,7 +34192,7 @@
       <c r="Q316" s="58"/>
       <c r="R316" s="58"/>
     </row>
-    <row r="317" spans="1:18" ht="33.75">
+    <row r="317" spans="1:18" ht="33">
       <c r="A317" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
@@ -34265,7 +34231,7 @@
       <c r="Q317" s="58"/>
       <c r="R317" s="58"/>
     </row>
-    <row r="318" spans="1:18" ht="45">
+    <row r="318" spans="1:18" ht="44">
       <c r="A318" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
@@ -34302,7 +34268,7 @@
       <c r="Q318" s="58"/>
       <c r="R318" s="58"/>
     </row>
-    <row r="319" spans="1:18" ht="78.75">
+    <row r="319" spans="1:18" ht="77">
       <c r="A319" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),
@@ -34355,7 +34321,7 @@
       <c r="Q319" s="54"/>
       <c r="R319" s="54"/>
     </row>
-    <row r="320" spans="1:18" ht="78.75">
+    <row r="320" spans="1:18" ht="77">
       <c r="A320" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E320),
@@ -34404,7 +34370,7 @@
       <c r="Q320" s="54"/>
       <c r="R320" s="54"/>
     </row>
-    <row r="321" spans="1:18" ht="78.75">
+    <row r="321" spans="1:18" ht="77">
       <c r="A321" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A321" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E321),
@@ -34453,7 +34419,7 @@
       <c r="Q321" s="54"/>
       <c r="R321" s="54"/>
     </row>
-    <row r="322" spans="1:18" ht="45">
+    <row r="322" spans="1:18" ht="44">
       <c r="A322" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E322),
@@ -34488,7 +34454,7 @@
       <c r="Q322" s="58"/>
       <c r="R322" s="58"/>
     </row>
-    <row r="323" spans="1:18" ht="45">
+    <row r="323" spans="1:18" ht="44">
       <c r="A323" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E323),
@@ -34523,7 +34489,7 @@
       <c r="Q323" s="58"/>
       <c r="R323" s="58"/>
     </row>
-    <row r="324" spans="1:18" ht="45">
+    <row r="324" spans="1:18" ht="44">
       <c r="A324" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A324" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E324),
@@ -34558,7 +34524,7 @@
       <c r="Q324" s="58"/>
       <c r="R324" s="58"/>
     </row>
-    <row r="325" spans="1:18" ht="45">
+    <row r="325" spans="1:18" ht="44">
       <c r="A325" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A325" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E325),
@@ -34593,7 +34559,7 @@
       <c r="Q325" s="58"/>
       <c r="R325" s="58"/>
     </row>
-    <row r="326" spans="1:18" ht="45">
+    <row r="326" spans="1:18" ht="44">
       <c r="A326" s="106" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E326),
@@ -34628,7 +34594,7 @@
       <c r="Q326" s="58"/>
       <c r="R326" s="58"/>
     </row>
-    <row r="327" spans="1:18" ht="22.5">
+    <row r="327" spans="1:18" ht="22">
       <c r="A327" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A327" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E327),

--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10101_顧客検索.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10101_顧客検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B15870-61BC-441D-9175-0255D02A7204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4ED48C-DF41-4473-988A-E7AAB3E1807E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9307,6 +9307,72 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9413,72 +9479,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10038,10 +10038,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34385B34-3973-4F29-BD35-94FD07EE8C66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7309CFAD-6B37-4CCA-9D95-7C33E85DE53C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10078,13 +10078,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@AssertTrue</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クラス単体テストで確認が必要な観点なし。机上確認とリクエスト単体テストで品質担保する。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>によるバリデーションなど、クラス単体で確認が必要な処理なし</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11004,57 +11009,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="185" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="207" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="191" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="200" t="s">
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="222" t="s">
         <v>610</v>
       </c>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="209" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="231" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="176" t="str">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="198" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11062,53 +11067,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="207" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="188" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="210" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="198" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11116,45 +11121,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="207"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="210"/>
-      <c r="AE3" s="210"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="231"/>
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="198"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11191,85 +11196,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="179" t="s">
+      <c r="C7" s="202"/>
+      <c r="D7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="179" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="181"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="179" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="179" t="s">
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="181"/>
-      <c r="S7" s="181"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="179" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="181"/>
-      <c r="AI7" s="180"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="202"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="231"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="232"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="196"/>
+      <c r="X8" s="196"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="196"/>
+      <c r="AD8" s="196"/>
+      <c r="AE8" s="197"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -11277,1089 +11282,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="219"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="222"/>
-      <c r="V9" s="222"/>
-      <c r="W9" s="222"/>
-      <c r="X9" s="222"/>
-      <c r="Y9" s="222"/>
-      <c r="Z9" s="222"/>
-      <c r="AA9" s="222"/>
-      <c r="AB9" s="222"/>
-      <c r="AC9" s="222"/>
-      <c r="AD9" s="222"/>
-      <c r="AE9" s="223"/>
-      <c r="AF9" s="218"/>
-      <c r="AG9" s="219"/>
-      <c r="AH9" s="219"/>
-      <c r="AI9" s="220"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="187"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="183"/>
+      <c r="AH9" s="183"/>
+      <c r="AI9" s="184"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="222"/>
-      <c r="S10" s="222"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="222"/>
-      <c r="V10" s="222"/>
-      <c r="W10" s="222"/>
-      <c r="X10" s="222"/>
-      <c r="Y10" s="222"/>
-      <c r="Z10" s="222"/>
-      <c r="AA10" s="222"/>
-      <c r="AB10" s="222"/>
-      <c r="AC10" s="222"/>
-      <c r="AD10" s="222"/>
-      <c r="AE10" s="223"/>
-      <c r="AF10" s="218"/>
-      <c r="AG10" s="219"/>
-      <c r="AH10" s="219"/>
-      <c r="AI10" s="220"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="187"/>
+      <c r="AF10" s="182"/>
+      <c r="AG10" s="183"/>
+      <c r="AH10" s="183"/>
+      <c r="AI10" s="184"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="212"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="221"/>
-      <c r="R11" s="222"/>
-      <c r="S11" s="222"/>
-      <c r="T11" s="222"/>
-      <c r="U11" s="222"/>
-      <c r="V11" s="222"/>
-      <c r="W11" s="222"/>
-      <c r="X11" s="222"/>
-      <c r="Y11" s="222"/>
-      <c r="Z11" s="222"/>
-      <c r="AA11" s="222"/>
-      <c r="AB11" s="222"/>
-      <c r="AC11" s="222"/>
-      <c r="AD11" s="222"/>
-      <c r="AE11" s="223"/>
-      <c r="AF11" s="218"/>
-      <c r="AG11" s="219"/>
-      <c r="AH11" s="219"/>
-      <c r="AI11" s="220"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="186"/>
+      <c r="Y11" s="186"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="186"/>
+      <c r="AB11" s="186"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="186"/>
+      <c r="AE11" s="187"/>
+      <c r="AF11" s="182"/>
+      <c r="AG11" s="183"/>
+      <c r="AH11" s="183"/>
+      <c r="AI11" s="184"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="212"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="221"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="222"/>
-      <c r="V12" s="222"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="222"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="222"/>
-      <c r="AB12" s="222"/>
-      <c r="AC12" s="222"/>
-      <c r="AD12" s="222"/>
-      <c r="AE12" s="223"/>
-      <c r="AF12" s="218"/>
-      <c r="AG12" s="219"/>
-      <c r="AH12" s="219"/>
-      <c r="AI12" s="220"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="186"/>
+      <c r="Z12" s="186"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="186"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="187"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="183"/>
+      <c r="AH12" s="183"/>
+      <c r="AI12" s="184"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="221"/>
-      <c r="R13" s="222"/>
-      <c r="S13" s="222"/>
-      <c r="T13" s="222"/>
-      <c r="U13" s="222"/>
-      <c r="V13" s="222"/>
-      <c r="W13" s="222"/>
-      <c r="X13" s="222"/>
-      <c r="Y13" s="222"/>
-      <c r="Z13" s="222"/>
-      <c r="AA13" s="222"/>
-      <c r="AB13" s="222"/>
-      <c r="AC13" s="222"/>
-      <c r="AD13" s="222"/>
-      <c r="AE13" s="223"/>
-      <c r="AF13" s="218"/>
-      <c r="AG13" s="219"/>
-      <c r="AH13" s="219"/>
-      <c r="AI13" s="220"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="183"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="186"/>
+      <c r="AA13" s="186"/>
+      <c r="AB13" s="186"/>
+      <c r="AC13" s="186"/>
+      <c r="AD13" s="186"/>
+      <c r="AE13" s="187"/>
+      <c r="AF13" s="182"/>
+      <c r="AG13" s="183"/>
+      <c r="AH13" s="183"/>
+      <c r="AI13" s="184"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="222"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
-      <c r="U14" s="222"/>
-      <c r="V14" s="222"/>
-      <c r="W14" s="222"/>
-      <c r="X14" s="222"/>
-      <c r="Y14" s="222"/>
-      <c r="Z14" s="222"/>
-      <c r="AA14" s="222"/>
-      <c r="AB14" s="222"/>
-      <c r="AC14" s="222"/>
-      <c r="AD14" s="222"/>
-      <c r="AE14" s="223"/>
-      <c r="AF14" s="218"/>
-      <c r="AG14" s="219"/>
-      <c r="AH14" s="219"/>
-      <c r="AI14" s="220"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="186"/>
+      <c r="S14" s="186"/>
+      <c r="T14" s="186"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="186"/>
+      <c r="X14" s="186"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="186"/>
+      <c r="AA14" s="186"/>
+      <c r="AB14" s="186"/>
+      <c r="AC14" s="186"/>
+      <c r="AD14" s="186"/>
+      <c r="AE14" s="187"/>
+      <c r="AF14" s="182"/>
+      <c r="AG14" s="183"/>
+      <c r="AH14" s="183"/>
+      <c r="AI14" s="184"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="222"/>
-      <c r="T15" s="222"/>
-      <c r="U15" s="222"/>
-      <c r="V15" s="222"/>
-      <c r="W15" s="222"/>
-      <c r="X15" s="222"/>
-      <c r="Y15" s="222"/>
-      <c r="Z15" s="222"/>
-      <c r="AA15" s="222"/>
-      <c r="AB15" s="222"/>
-      <c r="AC15" s="222"/>
-      <c r="AD15" s="222"/>
-      <c r="AE15" s="223"/>
-      <c r="AF15" s="218"/>
-      <c r="AG15" s="219"/>
-      <c r="AH15" s="219"/>
-      <c r="AI15" s="220"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="186"/>
+      <c r="AA15" s="186"/>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="187"/>
+      <c r="AF15" s="182"/>
+      <c r="AG15" s="183"/>
+      <c r="AH15" s="183"/>
+      <c r="AI15" s="184"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="221"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="222"/>
-      <c r="Z16" s="222"/>
-      <c r="AA16" s="222"/>
-      <c r="AB16" s="222"/>
-      <c r="AC16" s="222"/>
-      <c r="AD16" s="222"/>
-      <c r="AE16" s="223"/>
-      <c r="AF16" s="218"/>
-      <c r="AG16" s="219"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="220"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="184"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="186"/>
+      <c r="AC16" s="186"/>
+      <c r="AD16" s="186"/>
+      <c r="AE16" s="187"/>
+      <c r="AF16" s="182"/>
+      <c r="AG16" s="183"/>
+      <c r="AH16" s="183"/>
+      <c r="AI16" s="184"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="219"/>
-      <c r="M17" s="219"/>
-      <c r="N17" s="219"/>
-      <c r="O17" s="219"/>
-      <c r="P17" s="220"/>
-      <c r="Q17" s="221"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="222"/>
-      <c r="U17" s="222"/>
-      <c r="V17" s="222"/>
-      <c r="W17" s="222"/>
-      <c r="X17" s="222"/>
-      <c r="Y17" s="222"/>
-      <c r="Z17" s="222"/>
-      <c r="AA17" s="222"/>
-      <c r="AB17" s="222"/>
-      <c r="AC17" s="222"/>
-      <c r="AD17" s="222"/>
-      <c r="AE17" s="223"/>
-      <c r="AF17" s="218"/>
-      <c r="AG17" s="219"/>
-      <c r="AH17" s="219"/>
-      <c r="AI17" s="220"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="186"/>
+      <c r="S17" s="186"/>
+      <c r="T17" s="186"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="186"/>
+      <c r="X17" s="186"/>
+      <c r="Y17" s="186"/>
+      <c r="Z17" s="186"/>
+      <c r="AA17" s="186"/>
+      <c r="AB17" s="186"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="186"/>
+      <c r="AE17" s="187"/>
+      <c r="AF17" s="182"/>
+      <c r="AG17" s="183"/>
+      <c r="AH17" s="183"/>
+      <c r="AI17" s="184"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="219"/>
-      <c r="N18" s="219"/>
-      <c r="O18" s="219"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="221"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222"/>
-      <c r="U18" s="222"/>
-      <c r="V18" s="222"/>
-      <c r="W18" s="222"/>
-      <c r="X18" s="222"/>
-      <c r="Y18" s="222"/>
-      <c r="Z18" s="222"/>
-      <c r="AA18" s="222"/>
-      <c r="AB18" s="222"/>
-      <c r="AC18" s="222"/>
-      <c r="AD18" s="222"/>
-      <c r="AE18" s="223"/>
-      <c r="AF18" s="218"/>
-      <c r="AG18" s="219"/>
-      <c r="AH18" s="219"/>
-      <c r="AI18" s="220"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="186"/>
+      <c r="U18" s="186"/>
+      <c r="V18" s="186"/>
+      <c r="W18" s="186"/>
+      <c r="X18" s="186"/>
+      <c r="Y18" s="186"/>
+      <c r="Z18" s="186"/>
+      <c r="AA18" s="186"/>
+      <c r="AB18" s="186"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="187"/>
+      <c r="AF18" s="182"/>
+      <c r="AG18" s="183"/>
+      <c r="AH18" s="183"/>
+      <c r="AI18" s="184"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="219"/>
-      <c r="N19" s="219"/>
-      <c r="O19" s="219"/>
-      <c r="P19" s="220"/>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="222"/>
-      <c r="V19" s="222"/>
-      <c r="W19" s="222"/>
-      <c r="X19" s="222"/>
-      <c r="Y19" s="222"/>
-      <c r="Z19" s="222"/>
-      <c r="AA19" s="222"/>
-      <c r="AB19" s="222"/>
-      <c r="AC19" s="222"/>
-      <c r="AD19" s="222"/>
-      <c r="AE19" s="223"/>
-      <c r="AF19" s="218"/>
-      <c r="AG19" s="219"/>
-      <c r="AH19" s="219"/>
-      <c r="AI19" s="220"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="186"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="186"/>
+      <c r="AA19" s="186"/>
+      <c r="AB19" s="186"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="187"/>
+      <c r="AF19" s="182"/>
+      <c r="AG19" s="183"/>
+      <c r="AH19" s="183"/>
+      <c r="AI19" s="184"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="219"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="219"/>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="221"/>
-      <c r="R20" s="222"/>
-      <c r="S20" s="222"/>
-      <c r="T20" s="222"/>
-      <c r="U20" s="222"/>
-      <c r="V20" s="222"/>
-      <c r="W20" s="222"/>
-      <c r="X20" s="222"/>
-      <c r="Y20" s="222"/>
-      <c r="Z20" s="222"/>
-      <c r="AA20" s="222"/>
-      <c r="AB20" s="222"/>
-      <c r="AC20" s="222"/>
-      <c r="AD20" s="222"/>
-      <c r="AE20" s="223"/>
-      <c r="AF20" s="218"/>
-      <c r="AG20" s="219"/>
-      <c r="AH20" s="219"/>
-      <c r="AI20" s="220"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="184"/>
+      <c r="Q20" s="185"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="186"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="186"/>
+      <c r="Z20" s="186"/>
+      <c r="AA20" s="186"/>
+      <c r="AB20" s="186"/>
+      <c r="AC20" s="186"/>
+      <c r="AD20" s="186"/>
+      <c r="AE20" s="187"/>
+      <c r="AF20" s="182"/>
+      <c r="AG20" s="183"/>
+      <c r="AH20" s="183"/>
+      <c r="AI20" s="184"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="219"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="219"/>
-      <c r="P21" s="220"/>
-      <c r="Q21" s="221"/>
-      <c r="R21" s="222"/>
-      <c r="S21" s="222"/>
-      <c r="T21" s="222"/>
-      <c r="U21" s="222"/>
-      <c r="V21" s="222"/>
-      <c r="W21" s="222"/>
-      <c r="X21" s="222"/>
-      <c r="Y21" s="222"/>
-      <c r="Z21" s="222"/>
-      <c r="AA21" s="222"/>
-      <c r="AB21" s="222"/>
-      <c r="AC21" s="222"/>
-      <c r="AD21" s="222"/>
-      <c r="AE21" s="223"/>
-      <c r="AF21" s="218"/>
-      <c r="AG21" s="219"/>
-      <c r="AH21" s="219"/>
-      <c r="AI21" s="220"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="185"/>
+      <c r="R21" s="186"/>
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
+      <c r="U21" s="186"/>
+      <c r="V21" s="186"/>
+      <c r="W21" s="186"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="186"/>
+      <c r="Z21" s="186"/>
+      <c r="AA21" s="186"/>
+      <c r="AB21" s="186"/>
+      <c r="AC21" s="186"/>
+      <c r="AD21" s="186"/>
+      <c r="AE21" s="187"/>
+      <c r="AF21" s="182"/>
+      <c r="AG21" s="183"/>
+      <c r="AH21" s="183"/>
+      <c r="AI21" s="184"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="212"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="222"/>
-      <c r="S22" s="222"/>
-      <c r="T22" s="222"/>
-      <c r="U22" s="222"/>
-      <c r="V22" s="222"/>
-      <c r="W22" s="222"/>
-      <c r="X22" s="222"/>
-      <c r="Y22" s="222"/>
-      <c r="Z22" s="222"/>
-      <c r="AA22" s="222"/>
-      <c r="AB22" s="222"/>
-      <c r="AC22" s="222"/>
-      <c r="AD22" s="222"/>
-      <c r="AE22" s="223"/>
-      <c r="AF22" s="218"/>
-      <c r="AG22" s="219"/>
-      <c r="AH22" s="219"/>
-      <c r="AI22" s="220"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="185"/>
+      <c r="R22" s="186"/>
+      <c r="S22" s="186"/>
+      <c r="T22" s="186"/>
+      <c r="U22" s="186"/>
+      <c r="V22" s="186"/>
+      <c r="W22" s="186"/>
+      <c r="X22" s="186"/>
+      <c r="Y22" s="186"/>
+      <c r="Z22" s="186"/>
+      <c r="AA22" s="186"/>
+      <c r="AB22" s="186"/>
+      <c r="AC22" s="186"/>
+      <c r="AD22" s="186"/>
+      <c r="AE22" s="187"/>
+      <c r="AF22" s="182"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="183"/>
+      <c r="AI22" s="184"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="219"/>
-      <c r="O23" s="219"/>
-      <c r="P23" s="220"/>
-      <c r="Q23" s="221"/>
-      <c r="R23" s="222"/>
-      <c r="S23" s="222"/>
-      <c r="T23" s="222"/>
-      <c r="U23" s="222"/>
-      <c r="V23" s="222"/>
-      <c r="W23" s="222"/>
-      <c r="X23" s="222"/>
-      <c r="Y23" s="222"/>
-      <c r="Z23" s="222"/>
-      <c r="AA23" s="222"/>
-      <c r="AB23" s="222"/>
-      <c r="AC23" s="222"/>
-      <c r="AD23" s="222"/>
-      <c r="AE23" s="223"/>
-      <c r="AF23" s="218"/>
-      <c r="AG23" s="219"/>
-      <c r="AH23" s="219"/>
-      <c r="AI23" s="220"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="186"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
+      <c r="U23" s="186"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="186"/>
+      <c r="X23" s="186"/>
+      <c r="Y23" s="186"/>
+      <c r="Z23" s="186"/>
+      <c r="AA23" s="186"/>
+      <c r="AB23" s="186"/>
+      <c r="AC23" s="186"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="187"/>
+      <c r="AF23" s="182"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="183"/>
+      <c r="AI23" s="184"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
-      <c r="P24" s="220"/>
-      <c r="Q24" s="221"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="222"/>
-      <c r="U24" s="222"/>
-      <c r="V24" s="222"/>
-      <c r="W24" s="222"/>
-      <c r="X24" s="222"/>
-      <c r="Y24" s="222"/>
-      <c r="Z24" s="222"/>
-      <c r="AA24" s="222"/>
-      <c r="AB24" s="222"/>
-      <c r="AC24" s="222"/>
-      <c r="AD24" s="222"/>
-      <c r="AE24" s="223"/>
-      <c r="AF24" s="218"/>
-      <c r="AG24" s="219"/>
-      <c r="AH24" s="219"/>
-      <c r="AI24" s="220"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="186"/>
+      <c r="U24" s="186"/>
+      <c r="V24" s="186"/>
+      <c r="W24" s="186"/>
+      <c r="X24" s="186"/>
+      <c r="Y24" s="186"/>
+      <c r="Z24" s="186"/>
+      <c r="AA24" s="186"/>
+      <c r="AB24" s="186"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="186"/>
+      <c r="AE24" s="187"/>
+      <c r="AF24" s="182"/>
+      <c r="AG24" s="183"/>
+      <c r="AH24" s="183"/>
+      <c r="AI24" s="184"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="218"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="219"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="219"/>
-      <c r="O25" s="219"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="222"/>
-      <c r="S25" s="222"/>
-      <c r="T25" s="222"/>
-      <c r="U25" s="222"/>
-      <c r="V25" s="222"/>
-      <c r="W25" s="222"/>
-      <c r="X25" s="222"/>
-      <c r="Y25" s="222"/>
-      <c r="Z25" s="222"/>
-      <c r="AA25" s="222"/>
-      <c r="AB25" s="222"/>
-      <c r="AC25" s="222"/>
-      <c r="AD25" s="222"/>
-      <c r="AE25" s="223"/>
-      <c r="AF25" s="218"/>
-      <c r="AG25" s="219"/>
-      <c r="AH25" s="219"/>
-      <c r="AI25" s="220"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="186"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="186"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="186"/>
+      <c r="W25" s="186"/>
+      <c r="X25" s="186"/>
+      <c r="Y25" s="186"/>
+      <c r="Z25" s="186"/>
+      <c r="AA25" s="186"/>
+      <c r="AB25" s="186"/>
+      <c r="AC25" s="186"/>
+      <c r="AD25" s="186"/>
+      <c r="AE25" s="187"/>
+      <c r="AF25" s="182"/>
+      <c r="AG25" s="183"/>
+      <c r="AH25" s="183"/>
+      <c r="AI25" s="184"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
-      <c r="N26" s="219"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="220"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="222"/>
-      <c r="S26" s="222"/>
-      <c r="T26" s="222"/>
-      <c r="U26" s="222"/>
-      <c r="V26" s="222"/>
-      <c r="W26" s="222"/>
-      <c r="X26" s="222"/>
-      <c r="Y26" s="222"/>
-      <c r="Z26" s="222"/>
-      <c r="AA26" s="222"/>
-      <c r="AB26" s="222"/>
-      <c r="AC26" s="222"/>
-      <c r="AD26" s="222"/>
-      <c r="AE26" s="223"/>
-      <c r="AF26" s="218"/>
-      <c r="AG26" s="219"/>
-      <c r="AH26" s="219"/>
-      <c r="AI26" s="220"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="186"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="186"/>
+      <c r="U26" s="186"/>
+      <c r="V26" s="186"/>
+      <c r="W26" s="186"/>
+      <c r="X26" s="186"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="186"/>
+      <c r="AA26" s="186"/>
+      <c r="AB26" s="186"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="187"/>
+      <c r="AF26" s="182"/>
+      <c r="AG26" s="183"/>
+      <c r="AH26" s="183"/>
+      <c r="AI26" s="184"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="218"/>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="220"/>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="222"/>
-      <c r="S27" s="222"/>
-      <c r="T27" s="222"/>
-      <c r="U27" s="222"/>
-      <c r="V27" s="222"/>
-      <c r="W27" s="222"/>
-      <c r="X27" s="222"/>
-      <c r="Y27" s="222"/>
-      <c r="Z27" s="222"/>
-      <c r="AA27" s="222"/>
-      <c r="AB27" s="222"/>
-      <c r="AC27" s="222"/>
-      <c r="AD27" s="222"/>
-      <c r="AE27" s="223"/>
-      <c r="AF27" s="218"/>
-      <c r="AG27" s="219"/>
-      <c r="AH27" s="219"/>
-      <c r="AI27" s="220"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="187"/>
+      <c r="AF27" s="182"/>
+      <c r="AG27" s="183"/>
+      <c r="AH27" s="183"/>
+      <c r="AI27" s="184"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="218"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
-      <c r="N28" s="219"/>
-      <c r="O28" s="219"/>
-      <c r="P28" s="220"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="222"/>
-      <c r="S28" s="222"/>
-      <c r="T28" s="222"/>
-      <c r="U28" s="222"/>
-      <c r="V28" s="222"/>
-      <c r="W28" s="222"/>
-      <c r="X28" s="222"/>
-      <c r="Y28" s="222"/>
-      <c r="Z28" s="222"/>
-      <c r="AA28" s="222"/>
-      <c r="AB28" s="222"/>
-      <c r="AC28" s="222"/>
-      <c r="AD28" s="222"/>
-      <c r="AE28" s="223"/>
-      <c r="AF28" s="218"/>
-      <c r="AG28" s="219"/>
-      <c r="AH28" s="219"/>
-      <c r="AI28" s="220"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="186"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="186"/>
+      <c r="U28" s="186"/>
+      <c r="V28" s="186"/>
+      <c r="W28" s="186"/>
+      <c r="X28" s="186"/>
+      <c r="Y28" s="186"/>
+      <c r="Z28" s="186"/>
+      <c r="AA28" s="186"/>
+      <c r="AB28" s="186"/>
+      <c r="AC28" s="186"/>
+      <c r="AD28" s="186"/>
+      <c r="AE28" s="187"/>
+      <c r="AF28" s="182"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="183"/>
+      <c r="AI28" s="184"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="219"/>
-      <c r="P29" s="220"/>
-      <c r="Q29" s="221"/>
-      <c r="R29" s="222"/>
-      <c r="S29" s="222"/>
-      <c r="T29" s="222"/>
-      <c r="U29" s="222"/>
-      <c r="V29" s="222"/>
-      <c r="W29" s="222"/>
-      <c r="X29" s="222"/>
-      <c r="Y29" s="222"/>
-      <c r="Z29" s="222"/>
-      <c r="AA29" s="222"/>
-      <c r="AB29" s="222"/>
-      <c r="AC29" s="222"/>
-      <c r="AD29" s="222"/>
-      <c r="AE29" s="223"/>
-      <c r="AF29" s="218"/>
-      <c r="AG29" s="219"/>
-      <c r="AH29" s="219"/>
-      <c r="AI29" s="220"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="186"/>
+      <c r="S29" s="186"/>
+      <c r="T29" s="186"/>
+      <c r="U29" s="186"/>
+      <c r="V29" s="186"/>
+      <c r="W29" s="186"/>
+      <c r="X29" s="186"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="186"/>
+      <c r="AA29" s="186"/>
+      <c r="AB29" s="186"/>
+      <c r="AC29" s="186"/>
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="187"/>
+      <c r="AF29" s="182"/>
+      <c r="AG29" s="183"/>
+      <c r="AH29" s="183"/>
+      <c r="AI29" s="184"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="218"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="219"/>
-      <c r="M30" s="219"/>
-      <c r="N30" s="219"/>
-      <c r="O30" s="219"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="221"/>
-      <c r="R30" s="222"/>
-      <c r="S30" s="222"/>
-      <c r="T30" s="222"/>
-      <c r="U30" s="222"/>
-      <c r="V30" s="222"/>
-      <c r="W30" s="222"/>
-      <c r="X30" s="222"/>
-      <c r="Y30" s="222"/>
-      <c r="Z30" s="222"/>
-      <c r="AA30" s="222"/>
-      <c r="AB30" s="222"/>
-      <c r="AC30" s="222"/>
-      <c r="AD30" s="222"/>
-      <c r="AE30" s="223"/>
-      <c r="AF30" s="218"/>
-      <c r="AG30" s="219"/>
-      <c r="AH30" s="219"/>
-      <c r="AI30" s="220"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="186"/>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="186"/>
+      <c r="X30" s="186"/>
+      <c r="Y30" s="186"/>
+      <c r="Z30" s="186"/>
+      <c r="AA30" s="186"/>
+      <c r="AB30" s="186"/>
+      <c r="AC30" s="186"/>
+      <c r="AD30" s="186"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="182"/>
+      <c r="AG30" s="183"/>
+      <c r="AH30" s="183"/>
+      <c r="AI30" s="184"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="219"/>
-      <c r="O31" s="219"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="221"/>
-      <c r="R31" s="222"/>
-      <c r="S31" s="222"/>
-      <c r="T31" s="222"/>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222"/>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222"/>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222"/>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222"/>
-      <c r="AC31" s="222"/>
-      <c r="AD31" s="222"/>
-      <c r="AE31" s="223"/>
-      <c r="AF31" s="218"/>
-      <c r="AG31" s="219"/>
-      <c r="AH31" s="219"/>
-      <c r="AI31" s="220"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="186"/>
+      <c r="Y31" s="186"/>
+      <c r="Z31" s="186"/>
+      <c r="AA31" s="186"/>
+      <c r="AB31" s="186"/>
+      <c r="AC31" s="186"/>
+      <c r="AD31" s="186"/>
+      <c r="AE31" s="187"/>
+      <c r="AF31" s="182"/>
+      <c r="AG31" s="183"/>
+      <c r="AH31" s="183"/>
+      <c r="AI31" s="184"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="212"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="222"/>
-      <c r="W32" s="222"/>
-      <c r="X32" s="222"/>
-      <c r="Y32" s="222"/>
-      <c r="Z32" s="222"/>
-      <c r="AA32" s="222"/>
-      <c r="AB32" s="222"/>
-      <c r="AC32" s="222"/>
-      <c r="AD32" s="222"/>
-      <c r="AE32" s="223"/>
-      <c r="AF32" s="218"/>
-      <c r="AG32" s="219"/>
-      <c r="AH32" s="219"/>
-      <c r="AI32" s="220"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="186"/>
+      <c r="U32" s="186"/>
+      <c r="V32" s="186"/>
+      <c r="W32" s="186"/>
+      <c r="X32" s="186"/>
+      <c r="Y32" s="186"/>
+      <c r="Z32" s="186"/>
+      <c r="AA32" s="186"/>
+      <c r="AB32" s="186"/>
+      <c r="AC32" s="186"/>
+      <c r="AD32" s="186"/>
+      <c r="AE32" s="187"/>
+      <c r="AF32" s="182"/>
+      <c r="AG32" s="183"/>
+      <c r="AH32" s="183"/>
+      <c r="AI32" s="184"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="218"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="219"/>
-      <c r="N33" s="219"/>
-      <c r="O33" s="219"/>
-      <c r="P33" s="220"/>
-      <c r="Q33" s="221"/>
-      <c r="R33" s="222"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="222"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="222"/>
-      <c r="W33" s="222"/>
-      <c r="X33" s="222"/>
-      <c r="Y33" s="222"/>
-      <c r="Z33" s="222"/>
-      <c r="AA33" s="222"/>
-      <c r="AB33" s="222"/>
-      <c r="AC33" s="222"/>
-      <c r="AD33" s="222"/>
-      <c r="AE33" s="223"/>
-      <c r="AF33" s="218"/>
-      <c r="AG33" s="219"/>
-      <c r="AH33" s="219"/>
-      <c r="AI33" s="220"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="185"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="186"/>
+      <c r="V33" s="186"/>
+      <c r="W33" s="186"/>
+      <c r="X33" s="186"/>
+      <c r="Y33" s="186"/>
+      <c r="Z33" s="186"/>
+      <c r="AA33" s="186"/>
+      <c r="AB33" s="186"/>
+      <c r="AC33" s="186"/>
+      <c r="AD33" s="186"/>
+      <c r="AE33" s="187"/>
+      <c r="AF33" s="182"/>
+      <c r="AG33" s="183"/>
+      <c r="AH33" s="183"/>
+      <c r="AI33" s="184"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12383,6 +12233,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10101_顧客検索.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10101_顧客検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4ED48C-DF41-4473-988A-E7AAB3E1807E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615379CA-DDD0-4DA8-AA5C-6E32A44EB8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="619">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -8195,6 +8195,16 @@
   </si>
   <si>
     <t>リクエストID：B10101</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストターゲット名：顧客検索</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>コキャクケンサク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -32985,7 +32995,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>9</v>
@@ -32995,7 +33005,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.5" thickBot="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="30" t="s">
+        <v>617</v>
+      </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
